--- a/sequences/02_retrieval_1.xlsx
+++ b/sequences/02_retrieval_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="473">
   <si>
     <t>word</t>
   </si>
@@ -2076,6 +2076,30 @@
       <c r="F7" t="s">
         <v>210</v>
       </c>
+      <c r="G7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H7" t="s">
+        <v>210</v>
+      </c>
+      <c r="I7" t="s">
+        <v>210</v>
+      </c>
+      <c r="J7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M7" t="s">
+        <v>210</v>
+      </c>
+      <c r="N7" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
@@ -2272,6 +2296,30 @@
       <c r="F12" t="s">
         <v>210</v>
       </c>
+      <c r="G12" t="s">
+        <v>210</v>
+      </c>
+      <c r="H12" t="s">
+        <v>210</v>
+      </c>
+      <c r="I12" t="s">
+        <v>210</v>
+      </c>
+      <c r="J12" t="s">
+        <v>210</v>
+      </c>
+      <c r="K12" t="s">
+        <v>210</v>
+      </c>
+      <c r="L12" t="s">
+        <v>210</v>
+      </c>
+      <c r="M12" t="s">
+        <v>210</v>
+      </c>
+      <c r="N12" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
@@ -2380,6 +2428,30 @@
       <c r="F15" t="s">
         <v>210</v>
       </c>
+      <c r="G15" t="s">
+        <v>210</v>
+      </c>
+      <c r="H15" t="s">
+        <v>210</v>
+      </c>
+      <c r="I15" t="s">
+        <v>210</v>
+      </c>
+      <c r="J15" t="s">
+        <v>210</v>
+      </c>
+      <c r="K15" t="s">
+        <v>210</v>
+      </c>
+      <c r="L15" t="s">
+        <v>210</v>
+      </c>
+      <c r="M15" t="s">
+        <v>210</v>
+      </c>
+      <c r="N15" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
@@ -2400,6 +2472,30 @@
       <c r="F16" t="s">
         <v>210</v>
       </c>
+      <c r="G16" t="s">
+        <v>210</v>
+      </c>
+      <c r="H16" t="s">
+        <v>210</v>
+      </c>
+      <c r="I16" t="s">
+        <v>210</v>
+      </c>
+      <c r="J16" t="s">
+        <v>210</v>
+      </c>
+      <c r="K16" t="s">
+        <v>210</v>
+      </c>
+      <c r="L16" t="s">
+        <v>210</v>
+      </c>
+      <c r="M16" t="s">
+        <v>210</v>
+      </c>
+      <c r="N16" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
@@ -2596,6 +2692,30 @@
       <c r="F21" t="s">
         <v>210</v>
       </c>
+      <c r="G21" t="s">
+        <v>210</v>
+      </c>
+      <c r="H21" t="s">
+        <v>210</v>
+      </c>
+      <c r="I21" t="s">
+        <v>210</v>
+      </c>
+      <c r="J21" t="s">
+        <v>210</v>
+      </c>
+      <c r="K21" t="s">
+        <v>210</v>
+      </c>
+      <c r="L21" t="s">
+        <v>210</v>
+      </c>
+      <c r="M21" t="s">
+        <v>210</v>
+      </c>
+      <c r="N21" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
@@ -2660,6 +2780,30 @@
       <c r="F23" t="s">
         <v>210</v>
       </c>
+      <c r="G23" t="s">
+        <v>210</v>
+      </c>
+      <c r="H23" t="s">
+        <v>210</v>
+      </c>
+      <c r="I23" t="s">
+        <v>210</v>
+      </c>
+      <c r="J23" t="s">
+        <v>210</v>
+      </c>
+      <c r="K23" t="s">
+        <v>210</v>
+      </c>
+      <c r="L23" t="s">
+        <v>210</v>
+      </c>
+      <c r="M23" t="s">
+        <v>210</v>
+      </c>
+      <c r="N23" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
@@ -2768,6 +2912,30 @@
       <c r="F26" t="s">
         <v>210</v>
       </c>
+      <c r="G26" t="s">
+        <v>210</v>
+      </c>
+      <c r="H26" t="s">
+        <v>210</v>
+      </c>
+      <c r="I26" t="s">
+        <v>210</v>
+      </c>
+      <c r="J26" t="s">
+        <v>210</v>
+      </c>
+      <c r="K26" t="s">
+        <v>210</v>
+      </c>
+      <c r="L26" t="s">
+        <v>210</v>
+      </c>
+      <c r="M26" t="s">
+        <v>210</v>
+      </c>
+      <c r="N26" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
@@ -2964,6 +3132,30 @@
       <c r="F31" t="s">
         <v>210</v>
       </c>
+      <c r="G31" t="s">
+        <v>210</v>
+      </c>
+      <c r="H31" t="s">
+        <v>210</v>
+      </c>
+      <c r="I31" t="s">
+        <v>210</v>
+      </c>
+      <c r="J31" t="s">
+        <v>210</v>
+      </c>
+      <c r="K31" t="s">
+        <v>210</v>
+      </c>
+      <c r="L31" t="s">
+        <v>210</v>
+      </c>
+      <c r="M31" t="s">
+        <v>210</v>
+      </c>
+      <c r="N31" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
@@ -2984,6 +3176,30 @@
       <c r="F32" t="s">
         <v>210</v>
       </c>
+      <c r="G32" t="s">
+        <v>210</v>
+      </c>
+      <c r="H32" t="s">
+        <v>210</v>
+      </c>
+      <c r="I32" t="s">
+        <v>210</v>
+      </c>
+      <c r="J32" t="s">
+        <v>210</v>
+      </c>
+      <c r="K32" t="s">
+        <v>210</v>
+      </c>
+      <c r="L32" t="s">
+        <v>210</v>
+      </c>
+      <c r="M32" t="s">
+        <v>210</v>
+      </c>
+      <c r="N32" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1">
@@ -3224,6 +3440,30 @@
       <c r="F38" t="s">
         <v>210</v>
       </c>
+      <c r="G38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H38" t="s">
+        <v>210</v>
+      </c>
+      <c r="I38" t="s">
+        <v>210</v>
+      </c>
+      <c r="J38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K38" t="s">
+        <v>210</v>
+      </c>
+      <c r="L38" t="s">
+        <v>210</v>
+      </c>
+      <c r="M38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N38" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1">
@@ -3288,6 +3528,30 @@
       <c r="F40" t="s">
         <v>210</v>
       </c>
+      <c r="G40" t="s">
+        <v>210</v>
+      </c>
+      <c r="H40" t="s">
+        <v>210</v>
+      </c>
+      <c r="I40" t="s">
+        <v>210</v>
+      </c>
+      <c r="J40" t="s">
+        <v>210</v>
+      </c>
+      <c r="K40" t="s">
+        <v>210</v>
+      </c>
+      <c r="L40" t="s">
+        <v>210</v>
+      </c>
+      <c r="M40" t="s">
+        <v>210</v>
+      </c>
+      <c r="N40" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1">
@@ -3484,6 +3748,30 @@
       <c r="F45" t="s">
         <v>210</v>
       </c>
+      <c r="G45" t="s">
+        <v>210</v>
+      </c>
+      <c r="H45" t="s">
+        <v>210</v>
+      </c>
+      <c r="I45" t="s">
+        <v>210</v>
+      </c>
+      <c r="J45" t="s">
+        <v>210</v>
+      </c>
+      <c r="K45" t="s">
+        <v>210</v>
+      </c>
+      <c r="L45" t="s">
+        <v>210</v>
+      </c>
+      <c r="M45" t="s">
+        <v>210</v>
+      </c>
+      <c r="N45" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1">
@@ -3504,6 +3792,30 @@
       <c r="F46" t="s">
         <v>210</v>
       </c>
+      <c r="G46" t="s">
+        <v>210</v>
+      </c>
+      <c r="H46" t="s">
+        <v>210</v>
+      </c>
+      <c r="I46" t="s">
+        <v>210</v>
+      </c>
+      <c r="J46" t="s">
+        <v>210</v>
+      </c>
+      <c r="K46" t="s">
+        <v>210</v>
+      </c>
+      <c r="L46" t="s">
+        <v>210</v>
+      </c>
+      <c r="M46" t="s">
+        <v>210</v>
+      </c>
+      <c r="N46" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1">
@@ -3568,6 +3880,30 @@
       <c r="F48" t="s">
         <v>210</v>
       </c>
+      <c r="G48" t="s">
+        <v>210</v>
+      </c>
+      <c r="H48" t="s">
+        <v>210</v>
+      </c>
+      <c r="I48" t="s">
+        <v>210</v>
+      </c>
+      <c r="J48" t="s">
+        <v>210</v>
+      </c>
+      <c r="K48" t="s">
+        <v>210</v>
+      </c>
+      <c r="L48" t="s">
+        <v>210</v>
+      </c>
+      <c r="M48" t="s">
+        <v>210</v>
+      </c>
+      <c r="N48" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1">
@@ -3676,6 +4012,30 @@
       <c r="F51" t="s">
         <v>210</v>
       </c>
+      <c r="G51" t="s">
+        <v>210</v>
+      </c>
+      <c r="H51" t="s">
+        <v>210</v>
+      </c>
+      <c r="I51" t="s">
+        <v>210</v>
+      </c>
+      <c r="J51" t="s">
+        <v>210</v>
+      </c>
+      <c r="K51" t="s">
+        <v>210</v>
+      </c>
+      <c r="L51" t="s">
+        <v>210</v>
+      </c>
+      <c r="M51" t="s">
+        <v>210</v>
+      </c>
+      <c r="N51" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1">
@@ -3784,6 +4144,30 @@
       <c r="F54" t="s">
         <v>210</v>
       </c>
+      <c r="G54" t="s">
+        <v>210</v>
+      </c>
+      <c r="H54" t="s">
+        <v>210</v>
+      </c>
+      <c r="I54" t="s">
+        <v>210</v>
+      </c>
+      <c r="J54" t="s">
+        <v>210</v>
+      </c>
+      <c r="K54" t="s">
+        <v>210</v>
+      </c>
+      <c r="L54" t="s">
+        <v>210</v>
+      </c>
+      <c r="M54" t="s">
+        <v>210</v>
+      </c>
+      <c r="N54" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="1">
@@ -3936,6 +4320,30 @@
       <c r="F58" t="s">
         <v>210</v>
       </c>
+      <c r="G58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H58" t="s">
+        <v>210</v>
+      </c>
+      <c r="I58" t="s">
+        <v>210</v>
+      </c>
+      <c r="J58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K58" t="s">
+        <v>210</v>
+      </c>
+      <c r="L58" t="s">
+        <v>210</v>
+      </c>
+      <c r="M58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N58" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="1">
@@ -4220,6 +4628,30 @@
       <c r="F65" t="s">
         <v>210</v>
       </c>
+      <c r="G65" t="s">
+        <v>210</v>
+      </c>
+      <c r="H65" t="s">
+        <v>210</v>
+      </c>
+      <c r="I65" t="s">
+        <v>210</v>
+      </c>
+      <c r="J65" t="s">
+        <v>210</v>
+      </c>
+      <c r="K65" t="s">
+        <v>210</v>
+      </c>
+      <c r="L65" t="s">
+        <v>210</v>
+      </c>
+      <c r="M65" t="s">
+        <v>210</v>
+      </c>
+      <c r="N65" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="1">
@@ -4240,6 +4672,30 @@
       <c r="F66" t="s">
         <v>210</v>
       </c>
+      <c r="G66" t="s">
+        <v>210</v>
+      </c>
+      <c r="H66" t="s">
+        <v>210</v>
+      </c>
+      <c r="I66" t="s">
+        <v>210</v>
+      </c>
+      <c r="J66" t="s">
+        <v>210</v>
+      </c>
+      <c r="K66" t="s">
+        <v>210</v>
+      </c>
+      <c r="L66" t="s">
+        <v>210</v>
+      </c>
+      <c r="M66" t="s">
+        <v>210</v>
+      </c>
+      <c r="N66" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="1">
@@ -4260,6 +4716,30 @@
       <c r="F67" t="s">
         <v>210</v>
       </c>
+      <c r="G67" t="s">
+        <v>210</v>
+      </c>
+      <c r="H67" t="s">
+        <v>210</v>
+      </c>
+      <c r="I67" t="s">
+        <v>210</v>
+      </c>
+      <c r="J67" t="s">
+        <v>210</v>
+      </c>
+      <c r="K67" t="s">
+        <v>210</v>
+      </c>
+      <c r="L67" t="s">
+        <v>210</v>
+      </c>
+      <c r="M67" t="s">
+        <v>210</v>
+      </c>
+      <c r="N67" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="1">
@@ -4324,6 +4804,30 @@
       <c r="F69" t="s">
         <v>210</v>
       </c>
+      <c r="G69" t="s">
+        <v>210</v>
+      </c>
+      <c r="H69" t="s">
+        <v>210</v>
+      </c>
+      <c r="I69" t="s">
+        <v>210</v>
+      </c>
+      <c r="J69" t="s">
+        <v>210</v>
+      </c>
+      <c r="K69" t="s">
+        <v>210</v>
+      </c>
+      <c r="L69" t="s">
+        <v>210</v>
+      </c>
+      <c r="M69" t="s">
+        <v>210</v>
+      </c>
+      <c r="N69" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="1">
@@ -4432,6 +4936,30 @@
       <c r="F72" t="s">
         <v>210</v>
       </c>
+      <c r="G72" t="s">
+        <v>210</v>
+      </c>
+      <c r="H72" t="s">
+        <v>210</v>
+      </c>
+      <c r="I72" t="s">
+        <v>210</v>
+      </c>
+      <c r="J72" t="s">
+        <v>210</v>
+      </c>
+      <c r="K72" t="s">
+        <v>210</v>
+      </c>
+      <c r="L72" t="s">
+        <v>210</v>
+      </c>
+      <c r="M72" t="s">
+        <v>210</v>
+      </c>
+      <c r="N72" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="1">
@@ -4584,6 +5112,30 @@
       <c r="F76" t="s">
         <v>210</v>
       </c>
+      <c r="G76" t="s">
+        <v>210</v>
+      </c>
+      <c r="H76" t="s">
+        <v>210</v>
+      </c>
+      <c r="I76" t="s">
+        <v>210</v>
+      </c>
+      <c r="J76" t="s">
+        <v>210</v>
+      </c>
+      <c r="K76" t="s">
+        <v>210</v>
+      </c>
+      <c r="L76" t="s">
+        <v>210</v>
+      </c>
+      <c r="M76" t="s">
+        <v>210</v>
+      </c>
+      <c r="N76" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="1">
@@ -4692,6 +5244,30 @@
       <c r="F79" t="s">
         <v>210</v>
       </c>
+      <c r="G79" t="s">
+        <v>210</v>
+      </c>
+      <c r="H79" t="s">
+        <v>210</v>
+      </c>
+      <c r="I79" t="s">
+        <v>210</v>
+      </c>
+      <c r="J79" t="s">
+        <v>210</v>
+      </c>
+      <c r="K79" t="s">
+        <v>210</v>
+      </c>
+      <c r="L79" t="s">
+        <v>210</v>
+      </c>
+      <c r="M79" t="s">
+        <v>210</v>
+      </c>
+      <c r="N79" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="1">
@@ -4800,6 +5376,30 @@
       <c r="F82" t="s">
         <v>210</v>
       </c>
+      <c r="G82" t="s">
+        <v>210</v>
+      </c>
+      <c r="H82" t="s">
+        <v>210</v>
+      </c>
+      <c r="I82" t="s">
+        <v>210</v>
+      </c>
+      <c r="J82" t="s">
+        <v>210</v>
+      </c>
+      <c r="K82" t="s">
+        <v>210</v>
+      </c>
+      <c r="L82" t="s">
+        <v>210</v>
+      </c>
+      <c r="M82" t="s">
+        <v>210</v>
+      </c>
+      <c r="N82" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="1">
@@ -5040,6 +5640,30 @@
       <c r="F88" t="s">
         <v>210</v>
       </c>
+      <c r="G88" t="s">
+        <v>210</v>
+      </c>
+      <c r="H88" t="s">
+        <v>210</v>
+      </c>
+      <c r="I88" t="s">
+        <v>210</v>
+      </c>
+      <c r="J88" t="s">
+        <v>210</v>
+      </c>
+      <c r="K88" t="s">
+        <v>210</v>
+      </c>
+      <c r="L88" t="s">
+        <v>210</v>
+      </c>
+      <c r="M88" t="s">
+        <v>210</v>
+      </c>
+      <c r="N88" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="1">
@@ -5192,6 +5816,30 @@
       <c r="F92" t="s">
         <v>210</v>
       </c>
+      <c r="G92" t="s">
+        <v>210</v>
+      </c>
+      <c r="H92" t="s">
+        <v>210</v>
+      </c>
+      <c r="I92" t="s">
+        <v>210</v>
+      </c>
+      <c r="J92" t="s">
+        <v>210</v>
+      </c>
+      <c r="K92" t="s">
+        <v>210</v>
+      </c>
+      <c r="L92" t="s">
+        <v>210</v>
+      </c>
+      <c r="M92" t="s">
+        <v>210</v>
+      </c>
+      <c r="N92" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="1">
@@ -5256,6 +5904,30 @@
       <c r="F94" t="s">
         <v>210</v>
       </c>
+      <c r="G94" t="s">
+        <v>210</v>
+      </c>
+      <c r="H94" t="s">
+        <v>210</v>
+      </c>
+      <c r="I94" t="s">
+        <v>210</v>
+      </c>
+      <c r="J94" t="s">
+        <v>210</v>
+      </c>
+      <c r="K94" t="s">
+        <v>210</v>
+      </c>
+      <c r="L94" t="s">
+        <v>210</v>
+      </c>
+      <c r="M94" t="s">
+        <v>210</v>
+      </c>
+      <c r="N94" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="1">
@@ -5320,6 +5992,30 @@
       <c r="F96" t="s">
         <v>210</v>
       </c>
+      <c r="G96" t="s">
+        <v>210</v>
+      </c>
+      <c r="H96" t="s">
+        <v>210</v>
+      </c>
+      <c r="I96" t="s">
+        <v>210</v>
+      </c>
+      <c r="J96" t="s">
+        <v>210</v>
+      </c>
+      <c r="K96" t="s">
+        <v>210</v>
+      </c>
+      <c r="L96" t="s">
+        <v>210</v>
+      </c>
+      <c r="M96" t="s">
+        <v>210</v>
+      </c>
+      <c r="N96" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="1">
@@ -5384,6 +6080,30 @@
       <c r="F98" t="s">
         <v>210</v>
       </c>
+      <c r="G98" t="s">
+        <v>210</v>
+      </c>
+      <c r="H98" t="s">
+        <v>210</v>
+      </c>
+      <c r="I98" t="s">
+        <v>210</v>
+      </c>
+      <c r="J98" t="s">
+        <v>210</v>
+      </c>
+      <c r="K98" t="s">
+        <v>210</v>
+      </c>
+      <c r="L98" t="s">
+        <v>210</v>
+      </c>
+      <c r="M98" t="s">
+        <v>210</v>
+      </c>
+      <c r="N98" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="1">
@@ -5404,6 +6124,30 @@
       <c r="F99" t="s">
         <v>210</v>
       </c>
+      <c r="G99" t="s">
+        <v>210</v>
+      </c>
+      <c r="H99" t="s">
+        <v>210</v>
+      </c>
+      <c r="I99" t="s">
+        <v>210</v>
+      </c>
+      <c r="J99" t="s">
+        <v>210</v>
+      </c>
+      <c r="K99" t="s">
+        <v>210</v>
+      </c>
+      <c r="L99" t="s">
+        <v>210</v>
+      </c>
+      <c r="M99" t="s">
+        <v>210</v>
+      </c>
+      <c r="N99" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="1">
@@ -5556,6 +6300,30 @@
       <c r="F103" t="s">
         <v>210</v>
       </c>
+      <c r="G103" t="s">
+        <v>210</v>
+      </c>
+      <c r="H103" t="s">
+        <v>210</v>
+      </c>
+      <c r="I103" t="s">
+        <v>210</v>
+      </c>
+      <c r="J103" t="s">
+        <v>210</v>
+      </c>
+      <c r="K103" t="s">
+        <v>210</v>
+      </c>
+      <c r="L103" t="s">
+        <v>210</v>
+      </c>
+      <c r="M103" t="s">
+        <v>210</v>
+      </c>
+      <c r="N103" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="1">
@@ -5708,6 +6476,30 @@
       <c r="F107" t="s">
         <v>210</v>
       </c>
+      <c r="G107" t="s">
+        <v>210</v>
+      </c>
+      <c r="H107" t="s">
+        <v>210</v>
+      </c>
+      <c r="I107" t="s">
+        <v>210</v>
+      </c>
+      <c r="J107" t="s">
+        <v>210</v>
+      </c>
+      <c r="K107" t="s">
+        <v>210</v>
+      </c>
+      <c r="L107" t="s">
+        <v>210</v>
+      </c>
+      <c r="M107" t="s">
+        <v>210</v>
+      </c>
+      <c r="N107" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="1">
@@ -5728,6 +6520,30 @@
       <c r="F108" t="s">
         <v>210</v>
       </c>
+      <c r="G108" t="s">
+        <v>210</v>
+      </c>
+      <c r="H108" t="s">
+        <v>210</v>
+      </c>
+      <c r="I108" t="s">
+        <v>210</v>
+      </c>
+      <c r="J108" t="s">
+        <v>210</v>
+      </c>
+      <c r="K108" t="s">
+        <v>210</v>
+      </c>
+      <c r="L108" t="s">
+        <v>210</v>
+      </c>
+      <c r="M108" t="s">
+        <v>210</v>
+      </c>
+      <c r="N108" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="1">
@@ -5792,6 +6608,30 @@
       <c r="F110" t="s">
         <v>210</v>
       </c>
+      <c r="G110" t="s">
+        <v>210</v>
+      </c>
+      <c r="H110" t="s">
+        <v>210</v>
+      </c>
+      <c r="I110" t="s">
+        <v>210</v>
+      </c>
+      <c r="J110" t="s">
+        <v>210</v>
+      </c>
+      <c r="K110" t="s">
+        <v>210</v>
+      </c>
+      <c r="L110" t="s">
+        <v>210</v>
+      </c>
+      <c r="M110" t="s">
+        <v>210</v>
+      </c>
+      <c r="N110" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="1">
@@ -5812,6 +6652,30 @@
       <c r="F111" t="s">
         <v>210</v>
       </c>
+      <c r="G111" t="s">
+        <v>210</v>
+      </c>
+      <c r="H111" t="s">
+        <v>210</v>
+      </c>
+      <c r="I111" t="s">
+        <v>210</v>
+      </c>
+      <c r="J111" t="s">
+        <v>210</v>
+      </c>
+      <c r="K111" t="s">
+        <v>210</v>
+      </c>
+      <c r="L111" t="s">
+        <v>210</v>
+      </c>
+      <c r="M111" t="s">
+        <v>210</v>
+      </c>
+      <c r="N111" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="1">
@@ -5964,6 +6828,30 @@
       <c r="F115" t="s">
         <v>210</v>
       </c>
+      <c r="G115" t="s">
+        <v>210</v>
+      </c>
+      <c r="H115" t="s">
+        <v>210</v>
+      </c>
+      <c r="I115" t="s">
+        <v>210</v>
+      </c>
+      <c r="J115" t="s">
+        <v>210</v>
+      </c>
+      <c r="K115" t="s">
+        <v>210</v>
+      </c>
+      <c r="L115" t="s">
+        <v>210</v>
+      </c>
+      <c r="M115" t="s">
+        <v>210</v>
+      </c>
+      <c r="N115" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="1">
@@ -6116,6 +7004,30 @@
       <c r="F119" t="s">
         <v>210</v>
       </c>
+      <c r="G119" t="s">
+        <v>210</v>
+      </c>
+      <c r="H119" t="s">
+        <v>210</v>
+      </c>
+      <c r="I119" t="s">
+        <v>210</v>
+      </c>
+      <c r="J119" t="s">
+        <v>210</v>
+      </c>
+      <c r="K119" t="s">
+        <v>210</v>
+      </c>
+      <c r="L119" t="s">
+        <v>210</v>
+      </c>
+      <c r="M119" t="s">
+        <v>210</v>
+      </c>
+      <c r="N119" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="1">
@@ -6136,6 +7048,30 @@
       <c r="F120" t="s">
         <v>210</v>
       </c>
+      <c r="G120" t="s">
+        <v>210</v>
+      </c>
+      <c r="H120" t="s">
+        <v>210</v>
+      </c>
+      <c r="I120" t="s">
+        <v>210</v>
+      </c>
+      <c r="J120" t="s">
+        <v>210</v>
+      </c>
+      <c r="K120" t="s">
+        <v>210</v>
+      </c>
+      <c r="L120" t="s">
+        <v>210</v>
+      </c>
+      <c r="M120" t="s">
+        <v>210</v>
+      </c>
+      <c r="N120" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="1">
@@ -6244,6 +7180,30 @@
       <c r="F123" t="s">
         <v>210</v>
       </c>
+      <c r="G123" t="s">
+        <v>210</v>
+      </c>
+      <c r="H123" t="s">
+        <v>210</v>
+      </c>
+      <c r="I123" t="s">
+        <v>210</v>
+      </c>
+      <c r="J123" t="s">
+        <v>210</v>
+      </c>
+      <c r="K123" t="s">
+        <v>210</v>
+      </c>
+      <c r="L123" t="s">
+        <v>210</v>
+      </c>
+      <c r="M123" t="s">
+        <v>210</v>
+      </c>
+      <c r="N123" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="1">
@@ -6440,6 +7400,30 @@
       <c r="F128" t="s">
         <v>210</v>
       </c>
+      <c r="G128" t="s">
+        <v>210</v>
+      </c>
+      <c r="H128" t="s">
+        <v>210</v>
+      </c>
+      <c r="I128" t="s">
+        <v>210</v>
+      </c>
+      <c r="J128" t="s">
+        <v>210</v>
+      </c>
+      <c r="K128" t="s">
+        <v>210</v>
+      </c>
+      <c r="L128" t="s">
+        <v>210</v>
+      </c>
+      <c r="M128" t="s">
+        <v>210</v>
+      </c>
+      <c r="N128" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="1">
@@ -6548,6 +7532,30 @@
       <c r="F131" t="s">
         <v>210</v>
       </c>
+      <c r="G131" t="s">
+        <v>210</v>
+      </c>
+      <c r="H131" t="s">
+        <v>210</v>
+      </c>
+      <c r="I131" t="s">
+        <v>210</v>
+      </c>
+      <c r="J131" t="s">
+        <v>210</v>
+      </c>
+      <c r="K131" t="s">
+        <v>210</v>
+      </c>
+      <c r="L131" t="s">
+        <v>210</v>
+      </c>
+      <c r="M131" t="s">
+        <v>210</v>
+      </c>
+      <c r="N131" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="1">
@@ -6700,6 +7708,30 @@
       <c r="F135" t="s">
         <v>210</v>
       </c>
+      <c r="G135" t="s">
+        <v>210</v>
+      </c>
+      <c r="H135" t="s">
+        <v>210</v>
+      </c>
+      <c r="I135" t="s">
+        <v>210</v>
+      </c>
+      <c r="J135" t="s">
+        <v>210</v>
+      </c>
+      <c r="K135" t="s">
+        <v>210</v>
+      </c>
+      <c r="L135" t="s">
+        <v>210</v>
+      </c>
+      <c r="M135" t="s">
+        <v>210</v>
+      </c>
+      <c r="N135" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="1">
@@ -6720,6 +7752,30 @@
       <c r="F136" t="s">
         <v>210</v>
       </c>
+      <c r="G136" t="s">
+        <v>210</v>
+      </c>
+      <c r="H136" t="s">
+        <v>210</v>
+      </c>
+      <c r="I136" t="s">
+        <v>210</v>
+      </c>
+      <c r="J136" t="s">
+        <v>210</v>
+      </c>
+      <c r="K136" t="s">
+        <v>210</v>
+      </c>
+      <c r="L136" t="s">
+        <v>210</v>
+      </c>
+      <c r="M136" t="s">
+        <v>210</v>
+      </c>
+      <c r="N136" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="1">
@@ -6784,6 +7840,30 @@
       <c r="F138" t="s">
         <v>210</v>
       </c>
+      <c r="G138" t="s">
+        <v>210</v>
+      </c>
+      <c r="H138" t="s">
+        <v>210</v>
+      </c>
+      <c r="I138" t="s">
+        <v>210</v>
+      </c>
+      <c r="J138" t="s">
+        <v>210</v>
+      </c>
+      <c r="K138" t="s">
+        <v>210</v>
+      </c>
+      <c r="L138" t="s">
+        <v>210</v>
+      </c>
+      <c r="M138" t="s">
+        <v>210</v>
+      </c>
+      <c r="N138" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="1">
@@ -6804,6 +7884,30 @@
       <c r="F139" t="s">
         <v>210</v>
       </c>
+      <c r="G139" t="s">
+        <v>210</v>
+      </c>
+      <c r="H139" t="s">
+        <v>210</v>
+      </c>
+      <c r="I139" t="s">
+        <v>210</v>
+      </c>
+      <c r="J139" t="s">
+        <v>210</v>
+      </c>
+      <c r="K139" t="s">
+        <v>210</v>
+      </c>
+      <c r="L139" t="s">
+        <v>210</v>
+      </c>
+      <c r="M139" t="s">
+        <v>210</v>
+      </c>
+      <c r="N139" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="1">
@@ -6868,6 +7972,30 @@
       <c r="F141" t="s">
         <v>210</v>
       </c>
+      <c r="G141" t="s">
+        <v>210</v>
+      </c>
+      <c r="H141" t="s">
+        <v>210</v>
+      </c>
+      <c r="I141" t="s">
+        <v>210</v>
+      </c>
+      <c r="J141" t="s">
+        <v>210</v>
+      </c>
+      <c r="K141" t="s">
+        <v>210</v>
+      </c>
+      <c r="L141" t="s">
+        <v>210</v>
+      </c>
+      <c r="M141" t="s">
+        <v>210</v>
+      </c>
+      <c r="N141" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="1">
@@ -7020,6 +8148,30 @@
       <c r="F145" t="s">
         <v>210</v>
       </c>
+      <c r="G145" t="s">
+        <v>210</v>
+      </c>
+      <c r="H145" t="s">
+        <v>210</v>
+      </c>
+      <c r="I145" t="s">
+        <v>210</v>
+      </c>
+      <c r="J145" t="s">
+        <v>210</v>
+      </c>
+      <c r="K145" t="s">
+        <v>210</v>
+      </c>
+      <c r="L145" t="s">
+        <v>210</v>
+      </c>
+      <c r="M145" t="s">
+        <v>210</v>
+      </c>
+      <c r="N145" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="1">
@@ -7304,6 +8456,30 @@
       <c r="F152" t="s">
         <v>210</v>
       </c>
+      <c r="G152" t="s">
+        <v>210</v>
+      </c>
+      <c r="H152" t="s">
+        <v>210</v>
+      </c>
+      <c r="I152" t="s">
+        <v>210</v>
+      </c>
+      <c r="J152" t="s">
+        <v>210</v>
+      </c>
+      <c r="K152" t="s">
+        <v>210</v>
+      </c>
+      <c r="L152" t="s">
+        <v>210</v>
+      </c>
+      <c r="M152" t="s">
+        <v>210</v>
+      </c>
+      <c r="N152" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="1">
@@ -7412,6 +8588,30 @@
       <c r="F155" t="s">
         <v>210</v>
       </c>
+      <c r="G155" t="s">
+        <v>210</v>
+      </c>
+      <c r="H155" t="s">
+        <v>210</v>
+      </c>
+      <c r="I155" t="s">
+        <v>210</v>
+      </c>
+      <c r="J155" t="s">
+        <v>210</v>
+      </c>
+      <c r="K155" t="s">
+        <v>210</v>
+      </c>
+      <c r="L155" t="s">
+        <v>210</v>
+      </c>
+      <c r="M155" t="s">
+        <v>210</v>
+      </c>
+      <c r="N155" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="1">
@@ -7564,6 +8764,30 @@
       <c r="F159" t="s">
         <v>210</v>
       </c>
+      <c r="G159" t="s">
+        <v>210</v>
+      </c>
+      <c r="H159" t="s">
+        <v>210</v>
+      </c>
+      <c r="I159" t="s">
+        <v>210</v>
+      </c>
+      <c r="J159" t="s">
+        <v>210</v>
+      </c>
+      <c r="K159" t="s">
+        <v>210</v>
+      </c>
+      <c r="L159" t="s">
+        <v>210</v>
+      </c>
+      <c r="M159" t="s">
+        <v>210</v>
+      </c>
+      <c r="N159" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="1">
@@ -7584,6 +8808,30 @@
       <c r="F160" t="s">
         <v>210</v>
       </c>
+      <c r="G160" t="s">
+        <v>210</v>
+      </c>
+      <c r="H160" t="s">
+        <v>210</v>
+      </c>
+      <c r="I160" t="s">
+        <v>210</v>
+      </c>
+      <c r="J160" t="s">
+        <v>210</v>
+      </c>
+      <c r="K160" t="s">
+        <v>210</v>
+      </c>
+      <c r="L160" t="s">
+        <v>210</v>
+      </c>
+      <c r="M160" t="s">
+        <v>210</v>
+      </c>
+      <c r="N160" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="1">
@@ -7604,6 +8852,30 @@
       <c r="F161" t="s">
         <v>210</v>
       </c>
+      <c r="G161" t="s">
+        <v>210</v>
+      </c>
+      <c r="H161" t="s">
+        <v>210</v>
+      </c>
+      <c r="I161" t="s">
+        <v>210</v>
+      </c>
+      <c r="J161" t="s">
+        <v>210</v>
+      </c>
+      <c r="K161" t="s">
+        <v>210</v>
+      </c>
+      <c r="L161" t="s">
+        <v>210</v>
+      </c>
+      <c r="M161" t="s">
+        <v>210</v>
+      </c>
+      <c r="N161" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="1">
@@ -7668,6 +8940,30 @@
       <c r="F163" t="s">
         <v>210</v>
       </c>
+      <c r="G163" t="s">
+        <v>210</v>
+      </c>
+      <c r="H163" t="s">
+        <v>210</v>
+      </c>
+      <c r="I163" t="s">
+        <v>210</v>
+      </c>
+      <c r="J163" t="s">
+        <v>210</v>
+      </c>
+      <c r="K163" t="s">
+        <v>210</v>
+      </c>
+      <c r="L163" t="s">
+        <v>210</v>
+      </c>
+      <c r="M163" t="s">
+        <v>210</v>
+      </c>
+      <c r="N163" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="1">
@@ -7820,6 +9116,30 @@
       <c r="F167" t="s">
         <v>210</v>
       </c>
+      <c r="G167" t="s">
+        <v>210</v>
+      </c>
+      <c r="H167" t="s">
+        <v>210</v>
+      </c>
+      <c r="I167" t="s">
+        <v>210</v>
+      </c>
+      <c r="J167" t="s">
+        <v>210</v>
+      </c>
+      <c r="K167" t="s">
+        <v>210</v>
+      </c>
+      <c r="L167" t="s">
+        <v>210</v>
+      </c>
+      <c r="M167" t="s">
+        <v>210</v>
+      </c>
+      <c r="N167" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="1">
@@ -7972,6 +9292,30 @@
       <c r="F171" t="s">
         <v>210</v>
       </c>
+      <c r="G171" t="s">
+        <v>210</v>
+      </c>
+      <c r="H171" t="s">
+        <v>210</v>
+      </c>
+      <c r="I171" t="s">
+        <v>210</v>
+      </c>
+      <c r="J171" t="s">
+        <v>210</v>
+      </c>
+      <c r="K171" t="s">
+        <v>210</v>
+      </c>
+      <c r="L171" t="s">
+        <v>210</v>
+      </c>
+      <c r="M171" t="s">
+        <v>210</v>
+      </c>
+      <c r="N171" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="172" spans="1:14">
       <c r="A172" s="1">
@@ -8080,6 +9424,30 @@
       <c r="F174" t="s">
         <v>210</v>
       </c>
+      <c r="G174" t="s">
+        <v>210</v>
+      </c>
+      <c r="H174" t="s">
+        <v>210</v>
+      </c>
+      <c r="I174" t="s">
+        <v>210</v>
+      </c>
+      <c r="J174" t="s">
+        <v>210</v>
+      </c>
+      <c r="K174" t="s">
+        <v>210</v>
+      </c>
+      <c r="L174" t="s">
+        <v>210</v>
+      </c>
+      <c r="M174" t="s">
+        <v>210</v>
+      </c>
+      <c r="N174" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="1">
@@ -8100,6 +9468,30 @@
       <c r="F175" t="s">
         <v>210</v>
       </c>
+      <c r="G175" t="s">
+        <v>210</v>
+      </c>
+      <c r="H175" t="s">
+        <v>210</v>
+      </c>
+      <c r="I175" t="s">
+        <v>210</v>
+      </c>
+      <c r="J175" t="s">
+        <v>210</v>
+      </c>
+      <c r="K175" t="s">
+        <v>210</v>
+      </c>
+      <c r="L175" t="s">
+        <v>210</v>
+      </c>
+      <c r="M175" t="s">
+        <v>210</v>
+      </c>
+      <c r="N175" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="1">
@@ -8120,6 +9512,30 @@
       <c r="F176" t="s">
         <v>210</v>
       </c>
+      <c r="G176" t="s">
+        <v>210</v>
+      </c>
+      <c r="H176" t="s">
+        <v>210</v>
+      </c>
+      <c r="I176" t="s">
+        <v>210</v>
+      </c>
+      <c r="J176" t="s">
+        <v>210</v>
+      </c>
+      <c r="K176" t="s">
+        <v>210</v>
+      </c>
+      <c r="L176" t="s">
+        <v>210</v>
+      </c>
+      <c r="M176" t="s">
+        <v>210</v>
+      </c>
+      <c r="N176" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="177" spans="1:14">
       <c r="A177" s="1">
@@ -8184,6 +9600,30 @@
       <c r="F178" t="s">
         <v>210</v>
       </c>
+      <c r="G178" t="s">
+        <v>210</v>
+      </c>
+      <c r="H178" t="s">
+        <v>210</v>
+      </c>
+      <c r="I178" t="s">
+        <v>210</v>
+      </c>
+      <c r="J178" t="s">
+        <v>210</v>
+      </c>
+      <c r="K178" t="s">
+        <v>210</v>
+      </c>
+      <c r="L178" t="s">
+        <v>210</v>
+      </c>
+      <c r="M178" t="s">
+        <v>210</v>
+      </c>
+      <c r="N178" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="1">
@@ -8204,6 +9644,30 @@
       <c r="F179" t="s">
         <v>210</v>
       </c>
+      <c r="G179" t="s">
+        <v>210</v>
+      </c>
+      <c r="H179" t="s">
+        <v>210</v>
+      </c>
+      <c r="I179" t="s">
+        <v>210</v>
+      </c>
+      <c r="J179" t="s">
+        <v>210</v>
+      </c>
+      <c r="K179" t="s">
+        <v>210</v>
+      </c>
+      <c r="L179" t="s">
+        <v>210</v>
+      </c>
+      <c r="M179" t="s">
+        <v>210</v>
+      </c>
+      <c r="N179" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="180" spans="1:14">
       <c r="A180" s="1">
@@ -8312,6 +9776,30 @@
       <c r="F182" t="s">
         <v>210</v>
       </c>
+      <c r="G182" t="s">
+        <v>210</v>
+      </c>
+      <c r="H182" t="s">
+        <v>210</v>
+      </c>
+      <c r="I182" t="s">
+        <v>210</v>
+      </c>
+      <c r="J182" t="s">
+        <v>210</v>
+      </c>
+      <c r="K182" t="s">
+        <v>210</v>
+      </c>
+      <c r="L182" t="s">
+        <v>210</v>
+      </c>
+      <c r="M182" t="s">
+        <v>210</v>
+      </c>
+      <c r="N182" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="1">
@@ -8508,6 +9996,30 @@
       <c r="F187" t="s">
         <v>210</v>
       </c>
+      <c r="G187" t="s">
+        <v>210</v>
+      </c>
+      <c r="H187" t="s">
+        <v>210</v>
+      </c>
+      <c r="I187" t="s">
+        <v>210</v>
+      </c>
+      <c r="J187" t="s">
+        <v>210</v>
+      </c>
+      <c r="K187" t="s">
+        <v>210</v>
+      </c>
+      <c r="L187" t="s">
+        <v>210</v>
+      </c>
+      <c r="M187" t="s">
+        <v>210</v>
+      </c>
+      <c r="N187" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="1">
@@ -8729,7 +10241,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:14">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -8746,6 +10258,30 @@
         <v>1</v>
       </c>
       <c r="F193" t="s">
+        <v>210</v>
+      </c>
+      <c r="G193" t="s">
+        <v>210</v>
+      </c>
+      <c r="H193" t="s">
+        <v>210</v>
+      </c>
+      <c r="I193" t="s">
+        <v>210</v>
+      </c>
+      <c r="J193" t="s">
+        <v>210</v>
+      </c>
+      <c r="K193" t="s">
+        <v>210</v>
+      </c>
+      <c r="L193" t="s">
+        <v>210</v>
+      </c>
+      <c r="M193" t="s">
+        <v>210</v>
+      </c>
+      <c r="N193" t="s">
         <v>210</v>
       </c>
     </row>

--- a/sequences/02_retrieval_1.xlsx
+++ b/sequences/02_retrieval_1.xlsx
@@ -55,580 +55,580 @@
     <t>type4</t>
   </si>
   <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>steuern</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>teilen</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>ziehen</t>
+  </si>
+  <si>
+    <t>pflegen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>ächzen</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>nähen</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>foltern</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>treten</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>sparen</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>regnen</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>kürzen</t>
+  </si>
+  <si>
+    <t>garen</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>segnen</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>läuten</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>orten</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>opfern</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>hupen</t>
+  </si>
+  <si>
+    <t>bilden</t>
+  </si>
+  <si>
+    <t>wahren</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>testen</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>spenden</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
     <t>liefern</t>
   </si>
   <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>tauschen</t>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>kaufen</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>fügen</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>küssen</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>starren</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>knien</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>reisen</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>klagen</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>posten</t>
+  </si>
+  <si>
+    <t>schultern</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>hassen</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>schalten</t>
+  </si>
+  <si>
+    <t>ahnen</t>
   </si>
   <si>
     <t>kehren</t>
   </si>
   <si>
-    <t>handeln</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>währen</t>
+    <t>regeln</t>
+  </si>
+  <si>
+    <t>baden</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>sprechen</t>
+  </si>
+  <si>
+    <t>beißen</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>messen</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>schleppen</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>duschen</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>leugnen</t>
+  </si>
+  <si>
+    <t>träumen</t>
   </si>
   <si>
     <t>jubeln</t>
   </si>
   <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>schalten</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>beißen</t>
-  </si>
-  <si>
-    <t>filmen</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>atmen</t>
+    <t>stimmen</t>
+  </si>
+  <si>
+    <t>nutzen</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>wagen</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>segeln</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>lösen</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>hindern</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>wechseln</t>
+  </si>
+  <si>
+    <t>strahlen</t>
+  </si>
+  <si>
+    <t>buchen</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>bleiben</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>lohnen</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>drücken</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>tragen</t>
+  </si>
+  <si>
+    <t>stechen</t>
+  </si>
+  <si>
+    <t>trotzen</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>leeren</t>
   </si>
   <si>
     <t>wärmen</t>
   </si>
   <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>trauen</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>leisten</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>siegen</t>
-  </si>
-  <si>
-    <t>nennen</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>wehen</t>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>bieten</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>schließen</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>erben</t>
   </si>
   <si>
     <t>mögen</t>
   </si>
   <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>leihen</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>werden</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>bilden</t>
-  </si>
-  <si>
-    <t>schämen</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>starren</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>schließen</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>garen</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>widmen</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>reiten</t>
-  </si>
-  <si>
-    <t>dingen</t>
-  </si>
-  <si>
-    <t>wagen</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>quälen</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>sprengen</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>albern</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>fassen</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>plaudern</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>tropfen</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>klettern</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>schütteln</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>kürzen</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>zittern</t>
-  </si>
-  <si>
-    <t>morden</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>zählen</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>knarren</t>
-  </si>
-  <si>
-    <t>nutzen</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>fehlen</t>
-  </si>
-  <si>
-    <t>treffen</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>kichern</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>schützen</t>
-  </si>
-  <si>
-    <t>schnellen</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>sitzen</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>sterben</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>kommen</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>lauten</t>
-  </si>
-  <si>
-    <t>lesen</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>wechseln</t>
-  </si>
-  <si>
-    <t>prügeln</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>locken</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>rauben</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>kämpfen</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>lohnen</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>heulen</t>
-  </si>
-  <si>
-    <t>decken</t>
-  </si>
-  <si>
-    <t>wahren</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>tragen</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>rächen</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>trösten</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>rauchen</t>
-  </si>
-  <si>
-    <t>fügen</t>
-  </si>
-  <si>
-    <t>zeichnen</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>wetten</t>
-  </si>
-  <si>
-    <t>fragen</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>treiben</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>polen</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>graben</t>
+    <t>wohnen</t>
   </si>
   <si>
     <t>face/face020.jpg</t>

--- a/sequences/02_retrieval_1.xlsx
+++ b/sequences/02_retrieval_1.xlsx
@@ -73,967 +73,970 @@
     <t>iti</t>
   </si>
   <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>schlafen</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>bleiben</t>
+  </si>
+  <si>
+    <t>lächeln</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>leugnen</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>fügen</t>
+  </si>
+  <si>
+    <t>ruhen</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>küssen</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>steuern</t>
+  </si>
+  <si>
+    <t>schwimmen</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>gucken</t>
+  </si>
+  <si>
+    <t>segeln</t>
+  </si>
+  <si>
     <t>segnen</t>
   </si>
   <si>
-    <t>schlafen</t>
+    <t>tragen</t>
+  </si>
+  <si>
+    <t>handeln</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>spenden</t>
+  </si>
+  <si>
+    <t>plaudern</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>stillen</t>
+  </si>
+  <si>
+    <t>leihen</t>
+  </si>
+  <si>
+    <t>zahlen</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>danken</t>
+  </si>
+  <si>
+    <t>wehen</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>triefen</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>lehnen</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>retten</t>
+  </si>
+  <si>
+    <t>morden</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>starren</t>
+  </si>
+  <si>
+    <t>fordern</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>pinkeln</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>kleben</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>buchen</t>
+  </si>
+  <si>
+    <t>schütteln</t>
   </si>
   <si>
     <t>zählen</t>
   </si>
   <si>
-    <t>bleiben</t>
+    <t>sammeln</t>
+  </si>
+  <si>
+    <t>leiten</t>
+  </si>
+  <si>
+    <t>sagen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>schützen</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>stärken</t>
+  </si>
+  <si>
+    <t>spannen</t>
+  </si>
+  <si>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>fassen</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>zeugen</t>
+  </si>
+  <si>
+    <t>gleichen</t>
+  </si>
+  <si>
+    <t>stürmen</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>wollen</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>fesseln</t>
+  </si>
+  <si>
+    <t>schreiben</t>
+  </si>
+  <si>
+    <t>leuchten</t>
+  </si>
+  <si>
+    <t>fragen</t>
+  </si>
+  <si>
+    <t>schämen</t>
+  </si>
+  <si>
+    <t>schneiden</t>
+  </si>
+  <si>
+    <t>faulen</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>schweben</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>gnaden</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>kommen</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>wiegen</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>regnen</t>
+  </si>
+  <si>
+    <t>schultern</t>
+  </si>
+  <si>
+    <t>pflegen</t>
+  </si>
+  <si>
+    <t>deuten</t>
+  </si>
+  <si>
+    <t>packen</t>
+  </si>
+  <si>
+    <t>schweigen</t>
+  </si>
+  <si>
+    <t>sitzen</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>nehmen</t>
+  </si>
+  <si>
+    <t>wohnen</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>nerven</t>
   </si>
   <si>
     <t>holen</t>
   </si>
   <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>wahren</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>wagen</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>albern</t>
+  </si>
+  <si>
+    <t>beißen</t>
+  </si>
+  <si>
+    <t>drücken</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>prüfen</t>
+  </si>
+  <si>
+    <t>rächen</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>reden</t>
+  </si>
+  <si>
+    <t>kaufen</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>schaden</t>
+  </si>
+  <si>
+    <t>füttern</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
     <t>binden</t>
   </si>
   <si>
-    <t>scheinen</t>
-  </si>
-  <si>
-    <t>handeln</t>
-  </si>
-  <si>
-    <t>decken</t>
-  </si>
-  <si>
     <t>dürfen</t>
   </si>
   <si>
-    <t>lächeln</t>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>mühen</t>
+  </si>
+  <si>
+    <t>lassen</t>
+  </si>
+  <si>
+    <t>stellen</t>
+  </si>
+  <si>
+    <t>baden</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>bilden</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>tanzen</t>
+  </si>
+  <si>
+    <t>bieten</t>
+  </si>
+  <si>
+    <t>nennen</t>
+  </si>
+  <si>
+    <t>haken</t>
+  </si>
+  <si>
+    <t>schleppen</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>testen</t>
+  </si>
+  <si>
+    <t>heißen</t>
+  </si>
+  <si>
+    <t>leeren</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>runden</t>
   </si>
   <si>
     <t>treten</t>
   </si>
   <si>
-    <t>lockern</t>
-  </si>
-  <si>
-    <t>beißen</t>
-  </si>
-  <si>
-    <t>räumen</t>
-  </si>
-  <si>
-    <t>bellen</t>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>leisten</t>
+  </si>
+  <si>
+    <t>antun</t>
+  </si>
+  <si>
+    <t>rühren</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>schnellen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>knurren</t>
+  </si>
+  <si>
+    <t>sehen</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>hassen</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>rauben</t>
+  </si>
+  <si>
+    <t>prügeln</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>wecken</t>
+  </si>
+  <si>
+    <t>knien</t>
+  </si>
+  <si>
+    <t>weinen</t>
+  </si>
+  <si>
+    <t>stopfen</t>
   </si>
   <si>
     <t>wandern</t>
   </si>
   <si>
-    <t>stammen</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>wohnen</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>gucken</t>
-  </si>
-  <si>
-    <t>fügen</t>
-  </si>
-  <si>
-    <t>schweben</t>
-  </si>
-  <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>treiben</t>
-  </si>
-  <si>
-    <t>sichern</t>
-  </si>
-  <si>
-    <t>wüten</t>
-  </si>
-  <si>
-    <t>äußern</t>
-  </si>
-  <si>
-    <t>bieten</t>
-  </si>
-  <si>
-    <t>plaudern</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>buchen</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>flehen</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>leihen</t>
-  </si>
-  <si>
-    <t>brauchen</t>
-  </si>
-  <si>
-    <t>zeugen</t>
-  </si>
-  <si>
-    <t>liegen</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>wagen</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>knarren</t>
-  </si>
-  <si>
-    <t>stürmen</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>zahlen</t>
-  </si>
-  <si>
-    <t>morden</t>
-  </si>
-  <si>
-    <t>albern</t>
-  </si>
-  <si>
-    <t>rühren</t>
-  </si>
-  <si>
-    <t>kümmern</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>pinkeln</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>malen</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>schultern</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>sagen</t>
-  </si>
-  <si>
-    <t>tropfen</t>
-  </si>
-  <si>
-    <t>faulen</t>
-  </si>
-  <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>helfen</t>
-  </si>
-  <si>
-    <t>wundern</t>
-  </si>
-  <si>
-    <t>spannen</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>fassen</t>
-  </si>
-  <si>
-    <t>fordern</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>schneiden</t>
-  </si>
-  <si>
-    <t>schützen</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>wollen</t>
-  </si>
-  <si>
-    <t>sperren</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>streichen</t>
-  </si>
-  <si>
-    <t>schaden</t>
-  </si>
-  <si>
-    <t>schämen</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>sehen</t>
-  </si>
-  <si>
-    <t>leugnen</t>
-  </si>
-  <si>
-    <t>wehtun</t>
-  </si>
-  <si>
-    <t>gnaden</t>
-  </si>
-  <si>
-    <t>testen</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>sammeln</t>
-  </si>
-  <si>
-    <t>schreiben</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>altern</t>
-  </si>
-  <si>
-    <t>weichen</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>reizen</t>
-  </si>
-  <si>
-    <t>steuern</t>
-  </si>
-  <si>
-    <t>knien</t>
+    <t>posten</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>schätzen</t>
   </si>
   <si>
     <t>landen</t>
   </si>
   <si>
-    <t>schweigen</t>
-  </si>
-  <si>
-    <t>sitzen</t>
-  </si>
-  <si>
-    <t>stopfen</t>
-  </si>
-  <si>
-    <t>trauen</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>schulden</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>geben</t>
-  </si>
-  <si>
-    <t>wahren</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>pflanzen</t>
-  </si>
-  <si>
-    <t>mauern</t>
-  </si>
-  <si>
-    <t>heilen</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>starren</t>
-  </si>
-  <si>
-    <t>schleppen</t>
-  </si>
-  <si>
-    <t>schreiten</t>
-  </si>
-  <si>
-    <t>stillen</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>rächen</t>
-  </si>
-  <si>
-    <t>seufzen</t>
-  </si>
-  <si>
-    <t>werden</t>
-  </si>
-  <si>
-    <t>reden</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>klingen</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>platzen</t>
-  </si>
-  <si>
-    <t>leiten</t>
-  </si>
-  <si>
-    <t>bilden</t>
-  </si>
-  <si>
-    <t>dringen</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>triefen</t>
-  </si>
-  <si>
-    <t>leisten</t>
-  </si>
-  <si>
-    <t>retten</t>
-  </si>
-  <si>
-    <t>stellen</t>
-  </si>
-  <si>
-    <t>baden</t>
-  </si>
-  <si>
-    <t>boxen</t>
-  </si>
-  <si>
-    <t>schrecken</t>
-  </si>
-  <si>
-    <t>ruhen</t>
-  </si>
-  <si>
-    <t>schütteln</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>schwimmen</t>
-  </si>
-  <si>
-    <t>leuchten</t>
-  </si>
-  <si>
-    <t>nennen</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>drücken</t>
-  </si>
-  <si>
-    <t>fahren</t>
-  </si>
-  <si>
-    <t>packen</t>
-  </si>
-  <si>
-    <t>machen</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>quälen</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>werfen</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>kleben</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>kommen</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>sorgen</t>
-  </si>
-  <si>
-    <t>schnellen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>knurren</t>
-  </si>
-  <si>
-    <t>tragen</t>
-  </si>
-  <si>
-    <t>nerven</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>gleichen</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>fragen</t>
-  </si>
-  <si>
-    <t>rauben</t>
-  </si>
-  <si>
-    <t>prügeln</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>weinen</t>
-  </si>
-  <si>
-    <t>grüßen</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>tanzen</t>
-  </si>
-  <si>
-    <t>klettern</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>mühen</t>
+    <t>flower/flower018.jpg</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>face/face019.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog016.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog029.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower017.jpg</t>
+  </si>
+  <si>
+    <t>house/house003.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog012.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog000.jpg</t>
+  </si>
+  <si>
+    <t>house/house012.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog024.jpg</t>
+  </si>
+  <si>
+    <t>house/house021.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower012.jpg</t>
+  </si>
+  <si>
+    <t>house/house016.jpg</t>
+  </si>
+  <si>
+    <t>house/house023.jpg</t>
+  </si>
+  <si>
+    <t>house/house024.jpg</t>
+  </si>
+  <si>
+    <t>house/house018.jpg</t>
+  </si>
+  <si>
+    <t>face/face006.jpg</t>
+  </si>
+  <si>
+    <t>house/house022.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower000.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog004.jpg</t>
+  </si>
+  <si>
+    <t>house/house020.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower022.jpg</t>
   </si>
   <si>
     <t>face/face030.jpg</t>
   </si>
   <si>
-    <t>none</t>
+    <t>face/face022.jpg</t>
+  </si>
+  <si>
+    <t>face/face027.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog026.jpg</t>
+  </si>
+  <si>
+    <t>house/house002.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower015.jpg</t>
+  </si>
+  <si>
+    <t>house/house005.jpg</t>
+  </si>
+  <si>
+    <t>face/face018.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog018.jpg</t>
+  </si>
+  <si>
+    <t>house/house007.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>house/house031.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower021.jpg</t>
+  </si>
+  <si>
+    <t>face/face025.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower011.jpg</t>
+  </si>
+  <si>
+    <t>face/face004.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower029.jpg</t>
+  </si>
+  <si>
+    <t>house/house026.jpg</t>
+  </si>
+  <si>
+    <t>face/face026.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower027.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower003.jpg</t>
+  </si>
+  <si>
+    <t>face/face008.jpg</t>
+  </si>
+  <si>
+    <t>face/face002.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower031.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower004.jpg</t>
+  </si>
+  <si>
+    <t>house/house014.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog009.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower024.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower007.jpg</t>
+  </si>
+  <si>
+    <t>face/face015.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog002.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog001.jpg</t>
+  </si>
+  <si>
+    <t>house/house013.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower025.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower001.jpg</t>
+  </si>
+  <si>
+    <t>house/house000.jpg</t>
+  </si>
+  <si>
+    <t>face/face031.jpg</t>
+  </si>
+  <si>
+    <t>face/face023.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower030.jpg</t>
+  </si>
+  <si>
+    <t>face/face028.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower006.jpg</t>
+  </si>
+  <si>
+    <t>house/house001.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog010.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog031.jpg</t>
+  </si>
+  <si>
+    <t>face/face000.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower005.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower019.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower023.jpg</t>
+  </si>
+  <si>
+    <t>house/house004.jpg</t>
+  </si>
+  <si>
+    <t>face/face007.jpg</t>
+  </si>
+  <si>
+    <t>house/house029.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog006.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog011.jpg</t>
+  </si>
+  <si>
+    <t>face/face016.jpg</t>
+  </si>
+  <si>
+    <t>face/face013.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower013.jpg</t>
+  </si>
+  <si>
+    <t>face/face001.jpg</t>
+  </si>
+  <si>
+    <t>face/face021.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower020.jpg</t>
+  </si>
+  <si>
+    <t>face/face029.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog027.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower028.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog008.jpg</t>
+  </si>
+  <si>
+    <t>face/face012.jpg</t>
+  </si>
+  <si>
+    <t>face/face020.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog019.jpg</t>
+  </si>
+  <si>
+    <t>face/face005.jpg</t>
+  </si>
+  <si>
+    <t>house/house011.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog013.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog023.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog020.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog025.jpg</t>
+  </si>
+  <si>
+    <t>house/house017.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog021.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog017.jpg</t>
+  </si>
+  <si>
+    <t>house/house019.jpg</t>
+  </si>
+  <si>
+    <t>house/house015.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog022.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>face/face010.jpg</t>
+  </si>
+  <si>
+    <t>house/house027.jpg</t>
+  </si>
+  <si>
+    <t>face/face024.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower002.jpg</t>
+  </si>
+  <si>
+    <t>house/house030.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower010.jpg</t>
+  </si>
+  <si>
+    <t>house/house028.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog005.jpg</t>
+  </si>
+  <si>
+    <t>house/house009.jpg</t>
+  </si>
+  <si>
+    <t>house/house025.jpg</t>
   </si>
   <si>
     <t>face/face009.jpg</t>
   </si>
   <si>
-    <t>face/face000.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog001.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower002.jpg</t>
-  </si>
-  <si>
-    <t>house/house017.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog022.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog020.jpg</t>
-  </si>
-  <si>
-    <t>face/face016.jpg</t>
-  </si>
-  <si>
-    <t>face/face026.jpg</t>
+    <t>dog/dog030.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog015.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog003.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog014.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog007.jpg</t>
+  </si>
+  <si>
+    <t>house/house006.jpg</t>
+  </si>
+  <si>
+    <t>face/face014.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower008.jpg</t>
+  </si>
+  <si>
+    <t>house/house008.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower014.jpg</t>
+  </si>
+  <si>
+    <t>face/face011.jpg</t>
+  </si>
+  <si>
+    <t>face/face003.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower026.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog028.jpg</t>
   </si>
   <si>
     <t>house/house010.jpg</t>
   </si>
   <si>
-    <t>dog/dog009.jpg</t>
-  </si>
-  <si>
-    <t>face/face023.jpg</t>
-  </si>
-  <si>
-    <t>face/face019.jpg</t>
-  </si>
-  <si>
-    <t>face/face010.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog025.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog011.jpg</t>
-  </si>
-  <si>
-    <t>house/house024.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower024.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower014.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower027.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower006.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower008.jpg</t>
-  </si>
-  <si>
-    <t>face/face002.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog027.jpg</t>
-  </si>
-  <si>
-    <t>house/house004.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog017.jpg</t>
-  </si>
-  <si>
-    <t>house/house021.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower025.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower022.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower020.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog019.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog013.jpg</t>
-  </si>
-  <si>
-    <t>face/face021.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog003.jpg</t>
-  </si>
-  <si>
-    <t>house/house020.jpg</t>
-  </si>
-  <si>
-    <t>face/face006.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower011.jpg</t>
-  </si>
-  <si>
-    <t>house/house012.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower019.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower021.jpg</t>
-  </si>
-  <si>
-    <t>house/house016.jpg</t>
-  </si>
-  <si>
-    <t>house/house002.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog031.jpg</t>
-  </si>
-  <si>
-    <t>face/face005.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog012.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower030.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower005.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog006.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog029.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower013.jpg</t>
-  </si>
-  <si>
-    <t>face/face013.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog016.jpg</t>
-  </si>
-  <si>
-    <t>face/face011.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog005.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower018.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog015.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower007.jpg</t>
-  </si>
-  <si>
-    <t>house/house000.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog000.jpg</t>
-  </si>
-  <si>
-    <t>face/face007.jpg</t>
-  </si>
-  <si>
-    <t>house/house018.jpg</t>
-  </si>
-  <si>
-    <t>house/house015.jpg</t>
-  </si>
-  <si>
-    <t>house/house005.jpg</t>
-  </si>
-  <si>
-    <t>house/house007.jpg</t>
-  </si>
-  <si>
-    <t>house/house009.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower031.jpg</t>
-  </si>
-  <si>
-    <t>face/face031.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower017.jpg</t>
-  </si>
-  <si>
-    <t>face/face014.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower010.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog021.jpg</t>
-  </si>
-  <si>
-    <t>house/house031.jpg</t>
-  </si>
-  <si>
-    <t>house/house025.jpg</t>
-  </si>
-  <si>
-    <t>face/face029.jpg</t>
-  </si>
-  <si>
-    <t>face/face008.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower004.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog007.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog010.jpg</t>
-  </si>
-  <si>
-    <t>house/house029.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog023.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower028.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower026.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog002.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog026.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower029.jpg</t>
-  </si>
-  <si>
-    <t>house/house028.jpg</t>
-  </si>
-  <si>
-    <t>face/face015.jpg</t>
-  </si>
-  <si>
-    <t>house/house003.jpg</t>
-  </si>
-  <si>
-    <t>face/face022.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog024.jpg</t>
-  </si>
-  <si>
     <t>face/face017.jpg</t>
   </si>
   <si>
-    <t>house/house013.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower000.jpg</t>
-  </si>
-  <si>
-    <t>house/house011.jpg</t>
-  </si>
-  <si>
-    <t>face/face024.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog018.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower012.jpg</t>
-  </si>
-  <si>
-    <t>house/house030.jpg</t>
-  </si>
-  <si>
-    <t>face/face001.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog014.jpg</t>
-  </si>
-  <si>
-    <t>house/house019.jpg</t>
-  </si>
-  <si>
-    <t>face/face018.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog030.jpg</t>
-  </si>
-  <si>
-    <t>face/face028.jpg</t>
-  </si>
-  <si>
-    <t>house/house027.jpg</t>
-  </si>
-  <si>
-    <t>face/face020.jpg</t>
-  </si>
-  <si>
-    <t>face/face012.jpg</t>
-  </si>
-  <si>
-    <t>face/face003.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower023.jpg</t>
-  </si>
-  <si>
-    <t>face/face025.jpg</t>
-  </si>
-  <si>
-    <t>house/house001.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower015.jpg</t>
-  </si>
-  <si>
-    <t>house/house026.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog008.jpg</t>
-  </si>
-  <si>
-    <t>house/house023.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower001.jpg</t>
-  </si>
-  <si>
-    <t>face/face027.jpg</t>
-  </si>
-  <si>
-    <t>house/house014.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower003.jpg</t>
-  </si>
-  <si>
-    <t>house/house006.jpg</t>
-  </si>
-  <si>
-    <t>house/house008.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog004.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog028.jpg</t>
-  </si>
-  <si>
-    <t>face/face004.jpg</t>
-  </si>
-  <si>
-    <t>house/house022.jpg</t>
+    <t>flower</t>
   </si>
   <si>
     <t>face</t>
@@ -1042,394 +1045,391 @@
     <t>dog</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
     <t>house</t>
   </si>
   <si>
+    <t>dog/dog264.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower175.jpg</t>
+  </si>
+  <si>
+    <t>face/face101.jpg</t>
+  </si>
+  <si>
+    <t>house/house210.jpg</t>
+  </si>
+  <si>
+    <t>face/face131.jpg</t>
+  </si>
+  <si>
+    <t>face/face204.jpg</t>
+  </si>
+  <si>
+    <t>house/house195.jpg</t>
+  </si>
+  <si>
+    <t>house/house257.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog251.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower141.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower171.jpg</t>
+  </si>
+  <si>
+    <t>face/face107.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower105.jpg</t>
+  </si>
+  <si>
+    <t>face/face252.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog219.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower163.jpg</t>
+  </si>
+  <si>
+    <t>house/house148.jpg</t>
+  </si>
+  <si>
+    <t>face/face207.jpg</t>
+  </si>
+  <si>
+    <t>face/face139.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower120.jpg</t>
+  </si>
+  <si>
+    <t>face/face190.jpg</t>
+  </si>
+  <si>
+    <t>house/house242.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog104.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower152.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower136.jpg</t>
+  </si>
+  <si>
+    <t>house/house096.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog223.jpg</t>
+  </si>
+  <si>
+    <t>face/face143.jpg</t>
+  </si>
+  <si>
+    <t>face/face173.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog176.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower115.jpg</t>
+  </si>
+  <si>
+    <t>face/face245.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog163.jpg</t>
+  </si>
+  <si>
+    <t>face/face183.jpg</t>
+  </si>
+  <si>
+    <t>house/house099.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog257.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog152.jpg</t>
+  </si>
+  <si>
+    <t>house/house162.jpg</t>
+  </si>
+  <si>
+    <t>house/house128.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog227.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower190.jpg</t>
+  </si>
+  <si>
+    <t>face/face194.jpg</t>
+  </si>
+  <si>
+    <t>face/face243.jpg</t>
+  </si>
+  <si>
+    <t>house/house155.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog234.jpg</t>
+  </si>
+  <si>
+    <t>house/house220.jpg</t>
+  </si>
+  <si>
+    <t>face/face189.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog129.jpg</t>
+  </si>
+  <si>
+    <t>house/house119.jpg</t>
+  </si>
+  <si>
+    <t>house/house159.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog218.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower243.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower215.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower157.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower233.jpg</t>
+  </si>
+  <si>
+    <t>face/face152.jpg</t>
+  </si>
+  <si>
+    <t>house/house232.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog232.jpg</t>
+  </si>
+  <si>
+    <t>house/house231.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower249.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog207.jpg</t>
+  </si>
+  <si>
+    <t>house/house156.jpg</t>
+  </si>
+  <si>
+    <t>face/face172.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower184.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower232.jpg</t>
+  </si>
+  <si>
+    <t>house/house117.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog113.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog119.jpg</t>
+  </si>
+  <si>
+    <t>house/house181.jpg</t>
+  </si>
+  <si>
+    <t>face/face195.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower101.jpg</t>
+  </si>
+  <si>
+    <t>house/house104.jpg</t>
+  </si>
+  <si>
+    <t>face/face218.jpg</t>
+  </si>
+  <si>
+    <t>face/face113.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower130.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog160.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower124.jpg</t>
+  </si>
+  <si>
+    <t>house/house131.jpg</t>
+  </si>
+  <si>
+    <t>house/house102.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog135.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog222.jpg</t>
+  </si>
+  <si>
     <t>flower/flower216.jpg</t>
   </si>
   <si>
-    <t>flower/flower184.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower190.jpg</t>
+    <t>house/house208.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog225.jpg</t>
+  </si>
+  <si>
+    <t>house/house098.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog250.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog138.jpg</t>
+  </si>
+  <si>
+    <t>face/face241.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower247.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower219.jpg</t>
   </si>
   <si>
     <t>face/face130.jpg</t>
   </si>
   <si>
-    <t>house/house099.jpg</t>
+    <t>flower/flower174.jpg</t>
+  </si>
+  <si>
+    <t>face/face209.jpg</t>
   </si>
   <si>
     <t>face/face118.jpg</t>
   </si>
   <si>
-    <t>house/house162.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower130.jpg</t>
-  </si>
-  <si>
-    <t>house/house102.jpg</t>
+    <t>flower/flower185.jpg</t>
+  </si>
+  <si>
+    <t>house/house252.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower259.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog110.jpg</t>
+  </si>
+  <si>
+    <t>face/face259.jpg</t>
   </si>
   <si>
     <t>flower/flower261.jpg</t>
   </si>
   <si>
+    <t>dog/dog149.jpg</t>
+  </si>
+  <si>
+    <t>house/house240.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower119.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower238.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog143.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog174.jpg</t>
+  </si>
+  <si>
+    <t>face/face251.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog239.jpg</t>
+  </si>
+  <si>
+    <t>face/face117.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower110.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog150.jpg</t>
+  </si>
+  <si>
+    <t>house/house227.jpg</t>
+  </si>
+  <si>
+    <t>house/house144.jpg</t>
+  </si>
+  <si>
+    <t>face/face201.jpg</t>
+  </si>
+  <si>
+    <t>house/house178.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower203.jpg</t>
+  </si>
+  <si>
+    <t>face/face219.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog098.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog115.jpg</t>
+  </si>
+  <si>
+    <t>house/house211.jpg</t>
+  </si>
+  <si>
     <t>face/face134.jpg</t>
   </si>
   <si>
-    <t>face/face173.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower136.jpg</t>
-  </si>
-  <si>
-    <t>house/house119.jpg</t>
-  </si>
-  <si>
-    <t>house/house131.jpg</t>
-  </si>
-  <si>
-    <t>house/house252.jpg</t>
-  </si>
-  <si>
-    <t>face/face172.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog176.jpg</t>
-  </si>
-  <si>
-    <t>house/house227.jpg</t>
-  </si>
-  <si>
-    <t>house/house257.jpg</t>
-  </si>
-  <si>
-    <t>face/face152.jpg</t>
-  </si>
-  <si>
-    <t>face/face204.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog104.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower152.jpg</t>
-  </si>
-  <si>
-    <t>face/face194.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog239.jpg</t>
-  </si>
-  <si>
-    <t>face/face113.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog234.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog232.jpg</t>
+    <t>house/house255.jpg</t>
   </si>
   <si>
     <t>house/house251.jpg</t>
   </si>
   <si>
-    <t>dog/dog207.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower124.jpg</t>
-  </si>
-  <si>
-    <t>face/face139.jpg</t>
-  </si>
-  <si>
-    <t>house/house144.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower238.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower163.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog150.jpg</t>
-  </si>
-  <si>
-    <t>house/house104.jpg</t>
-  </si>
-  <si>
-    <t>house/house148.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog098.jpg</t>
+    <t>house/house147.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog131.jpg</t>
   </si>
   <si>
     <t>face/face104.jpg</t>
   </si>
   <si>
-    <t>face/face259.jpg</t>
-  </si>
-  <si>
-    <t>face/face243.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog257.jpg</t>
-  </si>
-  <si>
-    <t>face/face143.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower115.jpg</t>
-  </si>
-  <si>
-    <t>house/house155.jpg</t>
-  </si>
-  <si>
-    <t>house/house242.jpg</t>
-  </si>
-  <si>
-    <t>house/house232.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower171.jpg</t>
-  </si>
-  <si>
-    <t>house/house128.jpg</t>
-  </si>
-  <si>
-    <t>house/house255.jpg</t>
-  </si>
-  <si>
-    <t>house/house210.jpg</t>
-  </si>
-  <si>
-    <t>house/house240.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower233.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower215.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog129.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower185.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog131.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog115.jpg</t>
-  </si>
-  <si>
-    <t>house/house181.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog163.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog218.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower219.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog143.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower175.jpg</t>
-  </si>
-  <si>
-    <t>face/face201.jpg</t>
-  </si>
-  <si>
-    <t>face/face131.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog152.jpg</t>
-  </si>
-  <si>
-    <t>face/face241.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog223.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog250.jpg</t>
-  </si>
-  <si>
-    <t>house/house231.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower249.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower259.jpg</t>
-  </si>
-  <si>
-    <t>house/house159.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog264.jpg</t>
-  </si>
-  <si>
-    <t>face/face190.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower203.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower157.jpg</t>
-  </si>
-  <si>
-    <t>face/face195.jpg</t>
-  </si>
-  <si>
-    <t>face/face117.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog222.jpg</t>
-  </si>
-  <si>
-    <t>face/face209.jpg</t>
-  </si>
-  <si>
-    <t>face/face189.jpg</t>
-  </si>
-  <si>
-    <t>house/house178.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog113.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower247.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog110.jpg</t>
-  </si>
-  <si>
-    <t>face/face207.jpg</t>
-  </si>
-  <si>
-    <t>house/house208.jpg</t>
+    <t>face/face228.jpg</t>
   </si>
   <si>
     <t>flower/flower258.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog219.jpg</t>
-  </si>
-  <si>
-    <t>face/face101.jpg</t>
-  </si>
-  <si>
-    <t>face/face245.jpg</t>
-  </si>
-  <si>
-    <t>face/face219.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog227.jpg</t>
-  </si>
-  <si>
-    <t>house/house147.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower101.jpg</t>
-  </si>
-  <si>
-    <t>house/house195.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog251.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog135.jpg</t>
-  </si>
-  <si>
-    <t>house/house096.jpg</t>
-  </si>
-  <si>
-    <t>face/face252.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower232.jpg</t>
-  </si>
-  <si>
-    <t>house/house220.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower174.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower141.jpg</t>
-  </si>
-  <si>
-    <t>house/house156.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog225.jpg</t>
-  </si>
-  <si>
-    <t>house/house098.jpg</t>
-  </si>
-  <si>
-    <t>face/face183.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog138.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower120.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog174.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower243.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower105.jpg</t>
-  </si>
-  <si>
-    <t>face/face251.jpg</t>
-  </si>
-  <si>
-    <t>house/house211.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower119.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog160.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog149.jpg</t>
-  </si>
-  <si>
-    <t>face/face228.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog119.jpg</t>
-  </si>
-  <si>
-    <t>face/face218.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower110.jpg</t>
-  </si>
-  <si>
-    <t>house/house117.jpg</t>
-  </si>
-  <si>
-    <t>face/face107.jpg</t>
   </si>
   <si>
     <t>correct/old/uncued</t>
@@ -1887,10 +1887,10 @@
         <v>211</v>
       </c>
       <c r="G2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H2" t="s">
-        <v>249</v>
+        <v>304</v>
       </c>
       <c r="I2" t="s">
         <v>344</v>
@@ -1905,7 +1905,7 @@
         <v>472</v>
       </c>
       <c r="M2" t="s">
-        <v>249</v>
+        <v>304</v>
       </c>
       <c r="N2" t="s">
         <v>473</v>
@@ -1917,7 +1917,7 @@
         <v>474</v>
       </c>
       <c r="Q2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="R2" t="s">
         <v>475</v>
@@ -1993,7 +1993,7 @@
         <v>213</v>
       </c>
       <c r="C4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -2005,19 +2005,19 @@
         <v>213</v>
       </c>
       <c r="G4" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="H4" t="s">
-        <v>323</v>
+        <v>254</v>
       </c>
       <c r="I4" t="s">
         <v>345</v>
       </c>
       <c r="J4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K4" t="s">
-        <v>323</v>
+        <v>254</v>
       </c>
       <c r="L4" t="s">
         <v>473</v>
@@ -2035,7 +2035,7 @@
         <v>474</v>
       </c>
       <c r="Q4" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="R4" t="s">
         <v>475</v>
@@ -2111,7 +2111,7 @@
         <v>214</v>
       </c>
       <c r="C6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -2123,16 +2123,16 @@
         <v>214</v>
       </c>
       <c r="G6" t="s">
-        <v>224</v>
+        <v>305</v>
       </c>
       <c r="H6" t="s">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="I6" t="s">
         <v>346</v>
       </c>
       <c r="J6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K6" t="s">
         <v>214</v>
@@ -2141,7 +2141,7 @@
         <v>472</v>
       </c>
       <c r="M6" t="s">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="N6" t="s">
         <v>473</v>
@@ -2153,7 +2153,7 @@
         <v>474</v>
       </c>
       <c r="Q6" t="s">
-        <v>224</v>
+        <v>305</v>
       </c>
       <c r="R6" t="s">
         <v>475</v>
@@ -2170,7 +2170,7 @@
         <v>215</v>
       </c>
       <c r="C7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -2182,16 +2182,16 @@
         <v>215</v>
       </c>
       <c r="G7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H7" t="s">
-        <v>214</v>
+        <v>332</v>
       </c>
       <c r="I7" t="s">
         <v>347</v>
       </c>
       <c r="J7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K7" t="s">
         <v>215</v>
@@ -2206,13 +2206,13 @@
         <v>474</v>
       </c>
       <c r="O7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="P7" t="s">
         <v>475</v>
       </c>
       <c r="Q7" t="s">
-        <v>214</v>
+        <v>332</v>
       </c>
       <c r="R7" t="s">
         <v>473</v>
@@ -2288,7 +2288,7 @@
         <v>216</v>
       </c>
       <c r="C9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -2300,16 +2300,16 @@
         <v>216</v>
       </c>
       <c r="G9" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="H9" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="I9" t="s">
         <v>348</v>
       </c>
       <c r="J9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K9" t="s">
         <v>348</v>
@@ -2318,13 +2318,13 @@
         <v>474</v>
       </c>
       <c r="M9" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="N9" t="s">
         <v>475</v>
       </c>
       <c r="O9" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="P9" t="s">
         <v>473</v>
@@ -2353,31 +2353,31 @@
         <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>217</v>
       </c>
       <c r="G10" t="s">
-        <v>239</v>
+        <v>284</v>
       </c>
       <c r="H10" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="I10" t="s">
         <v>349</v>
       </c>
       <c r="J10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K10" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="L10" t="s">
         <v>473</v>
       </c>
       <c r="M10" t="s">
-        <v>239</v>
+        <v>284</v>
       </c>
       <c r="N10" t="s">
         <v>475</v>
@@ -2392,7 +2392,7 @@
         <v>217</v>
       </c>
       <c r="R10" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="S10">
         <v>1.053706550351972</v>
@@ -2406,7 +2406,7 @@
         <v>218</v>
       </c>
       <c r="C11" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -2418,10 +2418,10 @@
         <v>218</v>
       </c>
       <c r="G11" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="H11" t="s">
-        <v>327</v>
+        <v>225</v>
       </c>
       <c r="I11" t="s">
         <v>350</v>
@@ -2436,7 +2436,7 @@
         <v>474</v>
       </c>
       <c r="M11" t="s">
-        <v>327</v>
+        <v>225</v>
       </c>
       <c r="N11" t="s">
         <v>473</v>
@@ -2448,7 +2448,7 @@
         <v>472</v>
       </c>
       <c r="Q11" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="R11" t="s">
         <v>475</v>
@@ -2465,7 +2465,7 @@
         <v>219</v>
       </c>
       <c r="C12" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -2477,16 +2477,16 @@
         <v>219</v>
       </c>
       <c r="G12" t="s">
-        <v>228</v>
+        <v>303</v>
       </c>
       <c r="H12" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="I12" t="s">
         <v>351</v>
       </c>
       <c r="J12" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K12" t="s">
         <v>351</v>
@@ -2495,7 +2495,7 @@
         <v>474</v>
       </c>
       <c r="M12" t="s">
-        <v>228</v>
+        <v>303</v>
       </c>
       <c r="N12" t="s">
         <v>475</v>
@@ -2507,7 +2507,7 @@
         <v>472</v>
       </c>
       <c r="Q12" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="R12" t="s">
         <v>473</v>
@@ -2524,31 +2524,31 @@
         <v>220</v>
       </c>
       <c r="C13" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>220</v>
       </c>
       <c r="G13" t="s">
-        <v>288</v>
+        <v>243</v>
       </c>
       <c r="H13" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="I13" t="s">
         <v>352</v>
       </c>
       <c r="J13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K13" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="L13" t="s">
         <v>473</v>
@@ -2557,10 +2557,10 @@
         <v>220</v>
       </c>
       <c r="N13" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="O13" t="s">
-        <v>288</v>
+        <v>243</v>
       </c>
       <c r="P13" t="s">
         <v>475</v>
@@ -2642,7 +2642,7 @@
         <v>221</v>
       </c>
       <c r="C15" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -2654,16 +2654,16 @@
         <v>221</v>
       </c>
       <c r="G15" t="s">
-        <v>211</v>
+        <v>264</v>
       </c>
       <c r="H15" t="s">
-        <v>295</v>
+        <v>246</v>
       </c>
       <c r="I15" t="s">
         <v>353</v>
       </c>
       <c r="J15" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K15" t="s">
         <v>353</v>
@@ -2678,13 +2678,13 @@
         <v>472</v>
       </c>
       <c r="O15" t="s">
-        <v>295</v>
+        <v>246</v>
       </c>
       <c r="P15" t="s">
         <v>473</v>
       </c>
       <c r="Q15" t="s">
-        <v>211</v>
+        <v>264</v>
       </c>
       <c r="R15" t="s">
         <v>475</v>
@@ -2772,10 +2772,10 @@
         <v>222</v>
       </c>
       <c r="G17" t="s">
-        <v>312</v>
+        <v>226</v>
       </c>
       <c r="H17" t="s">
-        <v>221</v>
+        <v>272</v>
       </c>
       <c r="I17" t="s">
         <v>354</v>
@@ -2784,7 +2784,7 @@
         <v>340</v>
       </c>
       <c r="K17" t="s">
-        <v>312</v>
+        <v>226</v>
       </c>
       <c r="L17" t="s">
         <v>475</v>
@@ -2796,7 +2796,7 @@
         <v>476</v>
       </c>
       <c r="O17" t="s">
-        <v>221</v>
+        <v>272</v>
       </c>
       <c r="P17" t="s">
         <v>473</v>
@@ -2819,34 +2819,34 @@
         <v>223</v>
       </c>
       <c r="C18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>223</v>
       </c>
       <c r="G18" t="s">
-        <v>272</v>
+        <v>336</v>
       </c>
       <c r="H18" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="I18" t="s">
         <v>355</v>
       </c>
       <c r="J18" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K18" t="s">
         <v>223</v>
       </c>
       <c r="L18" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="M18" t="s">
         <v>355</v>
@@ -2855,13 +2855,13 @@
         <v>474</v>
       </c>
       <c r="O18" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="P18" t="s">
         <v>473</v>
       </c>
       <c r="Q18" t="s">
-        <v>272</v>
+        <v>336</v>
       </c>
       <c r="R18" t="s">
         <v>475</v>
@@ -2937,7 +2937,7 @@
         <v>224</v>
       </c>
       <c r="C20" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         <v>224</v>
       </c>
       <c r="G20" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="H20" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I20" t="s">
         <v>356</v>
       </c>
       <c r="J20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K20" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="L20" t="s">
         <v>473</v>
       </c>
       <c r="M20" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="N20" t="s">
         <v>475</v>
@@ -2996,7 +2996,7 @@
         <v>225</v>
       </c>
       <c r="C21" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -3008,16 +3008,16 @@
         <v>225</v>
       </c>
       <c r="G21" t="s">
-        <v>221</v>
+        <v>282</v>
       </c>
       <c r="H21" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="I21" t="s">
         <v>357</v>
       </c>
       <c r="J21" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K21" t="s">
         <v>225</v>
@@ -3032,13 +3032,13 @@
         <v>474</v>
       </c>
       <c r="O21" t="s">
-        <v>221</v>
+        <v>282</v>
       </c>
       <c r="P21" t="s">
         <v>475</v>
       </c>
       <c r="Q21" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="R21" t="s">
         <v>473</v>
@@ -3055,31 +3055,31 @@
         <v>226</v>
       </c>
       <c r="C22" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>226</v>
       </c>
       <c r="G22" t="s">
-        <v>309</v>
+        <v>338</v>
       </c>
       <c r="H22" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="I22" t="s">
         <v>358</v>
       </c>
       <c r="J22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K22" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="L22" t="s">
         <v>473</v>
@@ -3088,7 +3088,7 @@
         <v>226</v>
       </c>
       <c r="N22" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="O22" t="s">
         <v>358</v>
@@ -3097,7 +3097,7 @@
         <v>474</v>
       </c>
       <c r="Q22" t="s">
-        <v>309</v>
+        <v>338</v>
       </c>
       <c r="R22" t="s">
         <v>475</v>
@@ -3173,31 +3173,31 @@
         <v>227</v>
       </c>
       <c r="C24" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>227</v>
       </c>
       <c r="G24" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="H24" t="s">
-        <v>334</v>
+        <v>274</v>
       </c>
       <c r="I24" t="s">
         <v>359</v>
       </c>
       <c r="J24" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K24" t="s">
-        <v>334</v>
+        <v>274</v>
       </c>
       <c r="L24" t="s">
         <v>473</v>
@@ -3209,7 +3209,7 @@
         <v>474</v>
       </c>
       <c r="O24" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="P24" t="s">
         <v>475</v>
@@ -3218,7 +3218,7 @@
         <v>227</v>
       </c>
       <c r="R24" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="S24">
         <v>1.02818236897489</v>
@@ -3244,25 +3244,25 @@
         <v>228</v>
       </c>
       <c r="G25" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="H25" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="I25" t="s">
         <v>360</v>
       </c>
       <c r="J25" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K25" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="L25" t="s">
         <v>475</v>
       </c>
       <c r="M25" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="N25" t="s">
         <v>473</v>
@@ -3303,10 +3303,10 @@
         <v>229</v>
       </c>
       <c r="G26" t="s">
-        <v>247</v>
+        <v>317</v>
       </c>
       <c r="H26" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="I26" t="s">
         <v>361</v>
@@ -3315,7 +3315,7 @@
         <v>341</v>
       </c>
       <c r="K26" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="L26" t="s">
         <v>473</v>
@@ -3327,7 +3327,7 @@
         <v>472</v>
       </c>
       <c r="O26" t="s">
-        <v>247</v>
+        <v>317</v>
       </c>
       <c r="P26" t="s">
         <v>475</v>
@@ -3350,28 +3350,28 @@
         <v>230</v>
       </c>
       <c r="C27" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="s">
         <v>230</v>
       </c>
       <c r="G27" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="H27" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
       <c r="I27" t="s">
         <v>362</v>
       </c>
       <c r="J27" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K27" t="s">
         <v>362</v>
@@ -3383,16 +3383,16 @@
         <v>230</v>
       </c>
       <c r="N27" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="O27" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
       <c r="P27" t="s">
         <v>473</v>
       </c>
       <c r="Q27" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="R27" t="s">
         <v>475</v>
@@ -3474,31 +3474,31 @@
         <v>0</v>
       </c>
       <c r="E29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="s">
         <v>231</v>
       </c>
       <c r="G29" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H29" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="I29" t="s">
         <v>363</v>
       </c>
       <c r="J29" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K29" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="L29" t="s">
         <v>475</v>
       </c>
       <c r="M29" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="N29" t="s">
         <v>473</v>
@@ -3507,7 +3507,7 @@
         <v>231</v>
       </c>
       <c r="P29" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="Q29" t="s">
         <v>363</v>
@@ -3586,7 +3586,7 @@
         <v>232</v>
       </c>
       <c r="C31" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -3598,19 +3598,19 @@
         <v>232</v>
       </c>
       <c r="G31" t="s">
-        <v>279</v>
+        <v>227</v>
       </c>
       <c r="H31" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="I31" t="s">
         <v>364</v>
       </c>
       <c r="J31" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K31" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="L31" t="s">
         <v>473</v>
@@ -3622,7 +3622,7 @@
         <v>472</v>
       </c>
       <c r="O31" t="s">
-        <v>279</v>
+        <v>227</v>
       </c>
       <c r="P31" t="s">
         <v>475</v>
@@ -3704,31 +3704,31 @@
         <v>233</v>
       </c>
       <c r="C33" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>233</v>
       </c>
       <c r="G33" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="H33" t="s">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c r="I33" t="s">
         <v>365</v>
       </c>
       <c r="J33" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K33" t="s">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c r="L33" t="s">
         <v>473</v>
@@ -3737,7 +3737,7 @@
         <v>233</v>
       </c>
       <c r="N33" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="O33" t="s">
         <v>365</v>
@@ -3746,7 +3746,7 @@
         <v>474</v>
       </c>
       <c r="Q33" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="R33" t="s">
         <v>475</v>
@@ -3763,7 +3763,7 @@
         <v>234</v>
       </c>
       <c r="C34" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -3775,25 +3775,25 @@
         <v>234</v>
       </c>
       <c r="G34" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="H34" t="s">
-        <v>223</v>
+        <v>307</v>
       </c>
       <c r="I34" t="s">
         <v>366</v>
       </c>
       <c r="J34" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K34" t="s">
-        <v>223</v>
+        <v>307</v>
       </c>
       <c r="L34" t="s">
         <v>473</v>
       </c>
       <c r="M34" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="N34" t="s">
         <v>475</v>
@@ -3822,7 +3822,7 @@
         <v>235</v>
       </c>
       <c r="C35" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -3834,25 +3834,25 @@
         <v>235</v>
       </c>
       <c r="G35" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="H35" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="I35" t="s">
         <v>367</v>
       </c>
       <c r="J35" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K35" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="L35" t="s">
         <v>473</v>
       </c>
       <c r="M35" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="N35" t="s">
         <v>475</v>
@@ -3952,10 +3952,10 @@
         <v>236</v>
       </c>
       <c r="G37" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="H37" t="s">
-        <v>316</v>
+        <v>250</v>
       </c>
       <c r="I37" t="s">
         <v>368</v>
@@ -3964,13 +3964,13 @@
         <v>340</v>
       </c>
       <c r="K37" t="s">
-        <v>316</v>
+        <v>250</v>
       </c>
       <c r="L37" t="s">
         <v>473</v>
       </c>
       <c r="M37" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="N37" t="s">
         <v>475</v>
@@ -4058,7 +4058,7 @@
         <v>237</v>
       </c>
       <c r="C39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
@@ -4070,19 +4070,19 @@
         <v>237</v>
       </c>
       <c r="G39" t="s">
-        <v>319</v>
+        <v>219</v>
       </c>
       <c r="H39" t="s">
-        <v>228</v>
+        <v>322</v>
       </c>
       <c r="I39" t="s">
         <v>369</v>
       </c>
       <c r="J39" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K39" t="s">
-        <v>228</v>
+        <v>322</v>
       </c>
       <c r="L39" t="s">
         <v>473</v>
@@ -4100,7 +4100,7 @@
         <v>472</v>
       </c>
       <c r="Q39" t="s">
-        <v>319</v>
+        <v>219</v>
       </c>
       <c r="R39" t="s">
         <v>475</v>
@@ -4117,34 +4117,34 @@
         <v>238</v>
       </c>
       <c r="C40" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
       </c>
       <c r="E40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>238</v>
       </c>
       <c r="G40" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="H40" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="I40" t="s">
         <v>370</v>
       </c>
       <c r="J40" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K40" t="s">
         <v>238</v>
       </c>
       <c r="L40" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="M40" t="s">
         <v>370</v>
@@ -4153,13 +4153,13 @@
         <v>474</v>
       </c>
       <c r="O40" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="P40" t="s">
         <v>475</v>
       </c>
       <c r="Q40" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="R40" t="s">
         <v>473</v>
@@ -4235,22 +4235,22 @@
         <v>239</v>
       </c>
       <c r="C42" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
         <v>239</v>
       </c>
       <c r="G42" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="H42" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="I42" t="s">
         <v>371</v>
@@ -4265,7 +4265,7 @@
         <v>474</v>
       </c>
       <c r="M42" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="N42" t="s">
         <v>475</v>
@@ -4274,10 +4274,10 @@
         <v>239</v>
       </c>
       <c r="P42" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="Q42" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="R42" t="s">
         <v>473</v>
@@ -4353,22 +4353,22 @@
         <v>240</v>
       </c>
       <c r="C44" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
       </c>
       <c r="E44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="s">
         <v>240</v>
       </c>
       <c r="G44" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="H44" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I44" t="s">
         <v>372</v>
@@ -4377,13 +4377,13 @@
         <v>341</v>
       </c>
       <c r="K44" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L44" t="s">
         <v>473</v>
       </c>
       <c r="M44" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="N44" t="s">
         <v>475</v>
@@ -4392,7 +4392,7 @@
         <v>240</v>
       </c>
       <c r="P44" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="Q44" t="s">
         <v>372</v>
@@ -4412,34 +4412,34 @@
         <v>241</v>
       </c>
       <c r="C45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
       </c>
       <c r="E45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="s">
         <v>241</v>
       </c>
       <c r="G45" t="s">
-        <v>232</v>
+        <v>330</v>
       </c>
       <c r="H45" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="I45" t="s">
         <v>373</v>
       </c>
       <c r="J45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K45" t="s">
         <v>241</v>
       </c>
       <c r="L45" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="M45" t="s">
         <v>373</v>
@@ -4448,13 +4448,13 @@
         <v>474</v>
       </c>
       <c r="O45" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="P45" t="s">
         <v>473</v>
       </c>
       <c r="Q45" t="s">
-        <v>232</v>
+        <v>330</v>
       </c>
       <c r="R45" t="s">
         <v>475</v>
@@ -4542,19 +4542,19 @@
         <v>242</v>
       </c>
       <c r="G47" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="H47" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="I47" t="s">
         <v>374</v>
       </c>
       <c r="J47" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K47" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="L47" t="s">
         <v>473</v>
@@ -4566,7 +4566,7 @@
         <v>472</v>
       </c>
       <c r="O47" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="P47" t="s">
         <v>475</v>
@@ -4589,31 +4589,31 @@
         <v>243</v>
       </c>
       <c r="C48" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="s">
         <v>243</v>
       </c>
       <c r="G48" t="s">
-        <v>246</v>
+        <v>301</v>
       </c>
       <c r="H48" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="I48" t="s">
         <v>375</v>
       </c>
       <c r="J48" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K48" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="L48" t="s">
         <v>473</v>
@@ -4628,10 +4628,10 @@
         <v>243</v>
       </c>
       <c r="P48" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="Q48" t="s">
-        <v>246</v>
+        <v>301</v>
       </c>
       <c r="R48" t="s">
         <v>475</v>
@@ -4648,7 +4648,7 @@
         <v>244</v>
       </c>
       <c r="C49" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -4660,19 +4660,19 @@
         <v>244</v>
       </c>
       <c r="G49" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="H49" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="I49" t="s">
         <v>376</v>
       </c>
       <c r="J49" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K49" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="L49" t="s">
         <v>475</v>
@@ -4690,7 +4690,7 @@
         <v>474</v>
       </c>
       <c r="Q49" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="R49" t="s">
         <v>473</v>
@@ -4766,7 +4766,7 @@
         <v>245</v>
       </c>
       <c r="C51" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
@@ -4778,16 +4778,16 @@
         <v>245</v>
       </c>
       <c r="G51" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="H51" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="I51" t="s">
         <v>377</v>
       </c>
       <c r="J51" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K51" t="s">
         <v>245</v>
@@ -4802,13 +4802,13 @@
         <v>474</v>
       </c>
       <c r="O51" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="P51" t="s">
         <v>475</v>
       </c>
       <c r="Q51" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="R51" t="s">
         <v>473</v>
@@ -4825,31 +4825,31 @@
         <v>246</v>
       </c>
       <c r="C52" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
         <v>246</v>
       </c>
       <c r="G52" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="H52" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I52" t="s">
         <v>378</v>
       </c>
       <c r="J52" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K52" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="L52" t="s">
         <v>475</v>
@@ -4861,7 +4861,7 @@
         <v>474</v>
       </c>
       <c r="O52" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P52" t="s">
         <v>473</v>
@@ -4870,7 +4870,7 @@
         <v>246</v>
       </c>
       <c r="R52" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="S52">
         <v>1.170980912459569</v>
@@ -4884,7 +4884,7 @@
         <v>247</v>
       </c>
       <c r="C53" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -4896,10 +4896,10 @@
         <v>247</v>
       </c>
       <c r="G53" t="s">
-        <v>217</v>
+        <v>293</v>
       </c>
       <c r="H53" t="s">
-        <v>330</v>
+        <v>231</v>
       </c>
       <c r="I53" t="s">
         <v>379</v>
@@ -4908,13 +4908,13 @@
         <v>342</v>
       </c>
       <c r="K53" t="s">
-        <v>330</v>
+        <v>231</v>
       </c>
       <c r="L53" t="s">
         <v>473</v>
       </c>
       <c r="M53" t="s">
-        <v>217</v>
+        <v>293</v>
       </c>
       <c r="N53" t="s">
         <v>475</v>
@@ -4949,25 +4949,25 @@
         <v>0</v>
       </c>
       <c r="E54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
         <v>248</v>
       </c>
       <c r="G54" t="s">
-        <v>318</v>
+        <v>244</v>
       </c>
       <c r="H54" t="s">
-        <v>297</v>
+        <v>221</v>
       </c>
       <c r="I54" t="s">
         <v>380</v>
       </c>
       <c r="J54" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K54" t="s">
-        <v>297</v>
+        <v>221</v>
       </c>
       <c r="L54" t="s">
         <v>473</v>
@@ -4976,10 +4976,10 @@
         <v>248</v>
       </c>
       <c r="N54" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="O54" t="s">
-        <v>318</v>
+        <v>244</v>
       </c>
       <c r="P54" t="s">
         <v>475</v>
@@ -5002,7 +5002,7 @@
         <v>249</v>
       </c>
       <c r="C55" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
@@ -5014,10 +5014,10 @@
         <v>249</v>
       </c>
       <c r="G55" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="H55" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="I55" t="s">
         <v>381</v>
@@ -5032,13 +5032,13 @@
         <v>472</v>
       </c>
       <c r="M55" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="N55" t="s">
         <v>473</v>
       </c>
       <c r="O55" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="P55" t="s">
         <v>475</v>
@@ -5120,7 +5120,7 @@
         <v>250</v>
       </c>
       <c r="C57" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
@@ -5132,10 +5132,10 @@
         <v>250</v>
       </c>
       <c r="G57" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H57" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="I57" t="s">
         <v>382</v>
@@ -5144,7 +5144,7 @@
         <v>343</v>
       </c>
       <c r="K57" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L57" t="s">
         <v>475</v>
@@ -5162,7 +5162,7 @@
         <v>474</v>
       </c>
       <c r="Q57" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="R57" t="s">
         <v>473</v>
@@ -5191,16 +5191,16 @@
         <v>251</v>
       </c>
       <c r="G58" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="H58" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
       <c r="I58" t="s">
         <v>383</v>
       </c>
       <c r="J58" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K58" t="s">
         <v>383</v>
@@ -5209,7 +5209,7 @@
         <v>474</v>
       </c>
       <c r="M58" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
       <c r="N58" t="s">
         <v>473</v>
@@ -5221,7 +5221,7 @@
         <v>476</v>
       </c>
       <c r="Q58" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="R58" t="s">
         <v>475</v>
@@ -5238,22 +5238,22 @@
         <v>252</v>
       </c>
       <c r="C59" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
       </c>
       <c r="E59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="s">
         <v>252</v>
       </c>
       <c r="G59" t="s">
-        <v>289</v>
+        <v>241</v>
       </c>
       <c r="H59" t="s">
-        <v>313</v>
+        <v>211</v>
       </c>
       <c r="I59" t="s">
         <v>384</v>
@@ -5262,13 +5262,13 @@
         <v>340</v>
       </c>
       <c r="K59" t="s">
-        <v>313</v>
+        <v>211</v>
       </c>
       <c r="L59" t="s">
         <v>473</v>
       </c>
       <c r="M59" t="s">
-        <v>289</v>
+        <v>241</v>
       </c>
       <c r="N59" t="s">
         <v>475</v>
@@ -5283,7 +5283,7 @@
         <v>252</v>
       </c>
       <c r="R59" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="S59">
         <v>1.045291833641397</v>
@@ -5356,43 +5356,43 @@
         <v>253</v>
       </c>
       <c r="C61" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
       </c>
       <c r="E61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="s">
         <v>253</v>
       </c>
       <c r="G61" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H61" t="s">
-        <v>245</v>
+        <v>300</v>
       </c>
       <c r="I61" t="s">
         <v>385</v>
       </c>
       <c r="J61" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K61" t="s">
         <v>253</v>
       </c>
       <c r="L61" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="M61" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N61" t="s">
         <v>475</v>
       </c>
       <c r="O61" t="s">
-        <v>245</v>
+        <v>300</v>
       </c>
       <c r="P61" t="s">
         <v>473</v>
@@ -5415,7 +5415,7 @@
         <v>254</v>
       </c>
       <c r="C62" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
@@ -5427,19 +5427,19 @@
         <v>254</v>
       </c>
       <c r="G62" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="H62" t="s">
-        <v>321</v>
+        <v>235</v>
       </c>
       <c r="I62" t="s">
         <v>386</v>
       </c>
       <c r="J62" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K62" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="L62" t="s">
         <v>475</v>
@@ -5457,7 +5457,7 @@
         <v>476</v>
       </c>
       <c r="Q62" t="s">
-        <v>321</v>
+        <v>235</v>
       </c>
       <c r="R62" t="s">
         <v>473</v>
@@ -5474,31 +5474,31 @@
         <v>255</v>
       </c>
       <c r="C63" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D63" t="b">
         <v>0</v>
       </c>
       <c r="E63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="s">
         <v>255</v>
       </c>
       <c r="G63" t="s">
-        <v>334</v>
+        <v>271</v>
       </c>
       <c r="H63" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="I63" t="s">
         <v>387</v>
       </c>
       <c r="J63" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K63" t="s">
-        <v>334</v>
+        <v>271</v>
       </c>
       <c r="L63" t="s">
         <v>475</v>
@@ -5507,10 +5507,10 @@
         <v>255</v>
       </c>
       <c r="N63" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="O63" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="P63" t="s">
         <v>473</v>
@@ -5545,16 +5545,16 @@
         <v>256</v>
       </c>
       <c r="G64" t="s">
-        <v>262</v>
+        <v>323</v>
       </c>
       <c r="H64" t="s">
-        <v>220</v>
+        <v>326</v>
       </c>
       <c r="I64" t="s">
         <v>388</v>
       </c>
       <c r="J64" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K64" t="s">
         <v>256</v>
@@ -5563,13 +5563,13 @@
         <v>472</v>
       </c>
       <c r="M64" t="s">
-        <v>262</v>
+        <v>323</v>
       </c>
       <c r="N64" t="s">
         <v>475</v>
       </c>
       <c r="O64" t="s">
-        <v>220</v>
+        <v>326</v>
       </c>
       <c r="P64" t="s">
         <v>473</v>
@@ -5598,31 +5598,31 @@
         <v>0</v>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="s">
         <v>257</v>
       </c>
       <c r="G65" t="s">
-        <v>338</v>
+        <v>262</v>
       </c>
       <c r="H65" t="s">
-        <v>216</v>
+        <v>314</v>
       </c>
       <c r="I65" t="s">
         <v>389</v>
       </c>
       <c r="J65" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K65" t="s">
-        <v>338</v>
+        <v>262</v>
       </c>
       <c r="L65" t="s">
         <v>475</v>
       </c>
       <c r="M65" t="s">
-        <v>216</v>
+        <v>314</v>
       </c>
       <c r="N65" t="s">
         <v>473</v>
@@ -5631,7 +5631,7 @@
         <v>257</v>
       </c>
       <c r="P65" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="Q65" t="s">
         <v>389</v>
@@ -5651,28 +5651,28 @@
         <v>258</v>
       </c>
       <c r="C66" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
       </c>
       <c r="E66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="s">
         <v>258</v>
       </c>
       <c r="G66" t="s">
-        <v>215</v>
+        <v>318</v>
       </c>
       <c r="H66" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="I66" t="s">
         <v>390</v>
       </c>
       <c r="J66" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K66" t="s">
         <v>390</v>
@@ -5681,7 +5681,7 @@
         <v>474</v>
       </c>
       <c r="M66" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="N66" t="s">
         <v>473</v>
@@ -5690,10 +5690,10 @@
         <v>258</v>
       </c>
       <c r="P66" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="Q66" t="s">
-        <v>215</v>
+        <v>318</v>
       </c>
       <c r="R66" t="s">
         <v>475</v>
@@ -5769,7 +5769,7 @@
         <v>259</v>
       </c>
       <c r="C68" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
@@ -5781,25 +5781,25 @@
         <v>259</v>
       </c>
       <c r="G68" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H68" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="I68" t="s">
         <v>391</v>
       </c>
       <c r="J68" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K68" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="L68" t="s">
         <v>473</v>
       </c>
       <c r="M68" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="N68" t="s">
         <v>475</v>
@@ -5840,10 +5840,10 @@
         <v>260</v>
       </c>
       <c r="G69" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="H69" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="I69" t="s">
         <v>392</v>
@@ -5858,13 +5858,13 @@
         <v>474</v>
       </c>
       <c r="M69" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="N69" t="s">
         <v>475</v>
       </c>
       <c r="O69" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="P69" t="s">
         <v>473</v>
@@ -5946,7 +5946,7 @@
         <v>261</v>
       </c>
       <c r="C71" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
@@ -5958,16 +5958,16 @@
         <v>261</v>
       </c>
       <c r="G71" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="H71" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="I71" t="s">
         <v>393</v>
       </c>
       <c r="J71" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K71" t="s">
         <v>393</v>
@@ -5982,13 +5982,13 @@
         <v>472</v>
       </c>
       <c r="O71" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="P71" t="s">
         <v>475</v>
       </c>
       <c r="Q71" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="R71" t="s">
         <v>473</v>
@@ -6005,31 +6005,31 @@
         <v>262</v>
       </c>
       <c r="C72" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
       </c>
       <c r="E72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="s">
         <v>262</v>
       </c>
       <c r="G72" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="H72" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="I72" t="s">
         <v>394</v>
       </c>
       <c r="J72" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K72" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="L72" t="s">
         <v>473</v>
@@ -6041,7 +6041,7 @@
         <v>474</v>
       </c>
       <c r="O72" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="P72" t="s">
         <v>475</v>
@@ -6050,7 +6050,7 @@
         <v>262</v>
       </c>
       <c r="R72" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="S72">
         <v>1.41958385749988</v>
@@ -6123,7 +6123,7 @@
         <v>263</v>
       </c>
       <c r="C74" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
@@ -6135,16 +6135,16 @@
         <v>263</v>
       </c>
       <c r="G74" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="H74" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="I74" t="s">
         <v>395</v>
       </c>
       <c r="J74" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K74" t="s">
         <v>263</v>
@@ -6153,13 +6153,13 @@
         <v>472</v>
       </c>
       <c r="M74" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="N74" t="s">
         <v>473</v>
       </c>
       <c r="O74" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="P74" t="s">
         <v>475</v>
@@ -6241,7 +6241,7 @@
         <v>264</v>
       </c>
       <c r="C76" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D76" t="b">
         <v>0</v>
@@ -6253,16 +6253,16 @@
         <v>264</v>
       </c>
       <c r="G76" t="s">
-        <v>322</v>
+        <v>260</v>
       </c>
       <c r="H76" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="I76" t="s">
         <v>396</v>
       </c>
       <c r="J76" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K76" t="s">
         <v>264</v>
@@ -6277,13 +6277,13 @@
         <v>474</v>
       </c>
       <c r="O76" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="P76" t="s">
         <v>473</v>
       </c>
       <c r="Q76" t="s">
-        <v>322</v>
+        <v>260</v>
       </c>
       <c r="R76" t="s">
         <v>475</v>
@@ -6300,7 +6300,7 @@
         <v>265</v>
       </c>
       <c r="C77" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
@@ -6312,16 +6312,16 @@
         <v>265</v>
       </c>
       <c r="G77" t="s">
-        <v>218</v>
+        <v>286</v>
       </c>
       <c r="H77" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I77" t="s">
         <v>397</v>
       </c>
       <c r="J77" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K77" t="s">
         <v>397</v>
@@ -6330,7 +6330,7 @@
         <v>474</v>
       </c>
       <c r="M77" t="s">
-        <v>218</v>
+        <v>286</v>
       </c>
       <c r="N77" t="s">
         <v>475</v>
@@ -6342,7 +6342,7 @@
         <v>472</v>
       </c>
       <c r="Q77" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="R77" t="s">
         <v>473</v>
@@ -6359,7 +6359,7 @@
         <v>266</v>
       </c>
       <c r="C78" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
@@ -6371,19 +6371,19 @@
         <v>266</v>
       </c>
       <c r="G78" t="s">
-        <v>304</v>
+        <v>225</v>
       </c>
       <c r="H78" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I78" t="s">
         <v>398</v>
       </c>
       <c r="J78" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K78" t="s">
-        <v>304</v>
+        <v>225</v>
       </c>
       <c r="L78" t="s">
         <v>475</v>
@@ -6395,7 +6395,7 @@
         <v>474</v>
       </c>
       <c r="O78" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P78" t="s">
         <v>473</v>
@@ -6418,7 +6418,7 @@
         <v>267</v>
       </c>
       <c r="C79" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
@@ -6430,19 +6430,19 @@
         <v>267</v>
       </c>
       <c r="G79" t="s">
-        <v>227</v>
+        <v>281</v>
       </c>
       <c r="H79" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="I79" t="s">
         <v>399</v>
       </c>
       <c r="J79" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K79" t="s">
-        <v>227</v>
+        <v>281</v>
       </c>
       <c r="L79" t="s">
         <v>475</v>
@@ -6454,7 +6454,7 @@
         <v>474</v>
       </c>
       <c r="O79" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="P79" t="s">
         <v>473</v>
@@ -6477,7 +6477,7 @@
         <v>268</v>
       </c>
       <c r="C80" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
@@ -6489,19 +6489,19 @@
         <v>268</v>
       </c>
       <c r="G80" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="H80" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="I80" t="s">
         <v>400</v>
       </c>
       <c r="J80" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K80" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="L80" t="s">
         <v>475</v>
@@ -6513,7 +6513,7 @@
         <v>474</v>
       </c>
       <c r="O80" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="P80" t="s">
         <v>473</v>
@@ -6654,7 +6654,7 @@
         <v>269</v>
       </c>
       <c r="C83" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
@@ -6666,10 +6666,10 @@
         <v>269</v>
       </c>
       <c r="G83" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="H83" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="I83" t="s">
         <v>401</v>
@@ -6678,13 +6678,13 @@
         <v>342</v>
       </c>
       <c r="K83" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="L83" t="s">
         <v>475</v>
       </c>
       <c r="M83" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="N83" t="s">
         <v>473</v>
@@ -6772,28 +6772,28 @@
         <v>270</v>
       </c>
       <c r="C85" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
       </c>
       <c r="E85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="s">
         <v>270</v>
       </c>
       <c r="G85" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="H85" t="s">
-        <v>244</v>
+        <v>321</v>
       </c>
       <c r="I85" t="s">
         <v>402</v>
       </c>
       <c r="J85" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K85" t="s">
         <v>402</v>
@@ -6805,16 +6805,16 @@
         <v>270</v>
       </c>
       <c r="N85" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="O85" t="s">
-        <v>244</v>
+        <v>321</v>
       </c>
       <c r="P85" t="s">
         <v>473</v>
       </c>
       <c r="Q85" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="R85" t="s">
         <v>475</v>
@@ -6831,7 +6831,7 @@
         <v>271</v>
       </c>
       <c r="C86" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
@@ -6843,16 +6843,16 @@
         <v>271</v>
       </c>
       <c r="G86" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="H86" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="I86" t="s">
         <v>403</v>
       </c>
       <c r="J86" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K86" t="s">
         <v>403</v>
@@ -6861,13 +6861,13 @@
         <v>474</v>
       </c>
       <c r="M86" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="N86" t="s">
         <v>475</v>
       </c>
       <c r="O86" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="P86" t="s">
         <v>473</v>
@@ -6890,7 +6890,7 @@
         <v>272</v>
       </c>
       <c r="C87" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
@@ -6902,19 +6902,19 @@
         <v>272</v>
       </c>
       <c r="G87" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H87" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="I87" t="s">
         <v>404</v>
       </c>
       <c r="J87" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K87" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="L87" t="s">
         <v>473</v>
@@ -6932,7 +6932,7 @@
         <v>472</v>
       </c>
       <c r="Q87" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="R87" t="s">
         <v>475</v>
@@ -7008,7 +7008,7 @@
         <v>273</v>
       </c>
       <c r="C89" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D89" t="b">
         <v>0</v>
@@ -7020,19 +7020,19 @@
         <v>273</v>
       </c>
       <c r="G89" t="s">
-        <v>302</v>
+        <v>213</v>
       </c>
       <c r="H89" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="I89" t="s">
         <v>405</v>
       </c>
       <c r="J89" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K89" t="s">
-        <v>302</v>
+        <v>213</v>
       </c>
       <c r="L89" t="s">
         <v>475</v>
@@ -7050,7 +7050,7 @@
         <v>472</v>
       </c>
       <c r="Q89" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="R89" t="s">
         <v>473</v>
@@ -7067,22 +7067,22 @@
         <v>274</v>
       </c>
       <c r="C90" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="s">
         <v>274</v>
       </c>
       <c r="G90" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="H90" t="s">
-        <v>215</v>
+        <v>330</v>
       </c>
       <c r="I90" t="s">
         <v>406</v>
@@ -7091,7 +7091,7 @@
         <v>341</v>
       </c>
       <c r="K90" t="s">
-        <v>215</v>
+        <v>330</v>
       </c>
       <c r="L90" t="s">
         <v>473</v>
@@ -7100,10 +7100,10 @@
         <v>274</v>
       </c>
       <c r="N90" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="O90" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="P90" t="s">
         <v>475</v>
@@ -7132,22 +7132,22 @@
         <v>0</v>
       </c>
       <c r="E91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" t="s">
         <v>275</v>
       </c>
       <c r="G91" t="s">
+        <v>332</v>
+      </c>
+      <c r="H91" t="s">
         <v>292</v>
-      </c>
-      <c r="H91" t="s">
-        <v>234</v>
       </c>
       <c r="I91" t="s">
         <v>407</v>
       </c>
       <c r="J91" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K91" t="s">
         <v>407</v>
@@ -7156,13 +7156,13 @@
         <v>474</v>
       </c>
       <c r="M91" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="N91" t="s">
         <v>475</v>
       </c>
       <c r="O91" t="s">
-        <v>234</v>
+        <v>292</v>
       </c>
       <c r="P91" t="s">
         <v>473</v>
@@ -7171,7 +7171,7 @@
         <v>275</v>
       </c>
       <c r="R91" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="S91">
         <v>1.077031301635372</v>
@@ -7185,37 +7185,37 @@
         <v>276</v>
       </c>
       <c r="C92" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
       </c>
       <c r="E92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" t="s">
         <v>276</v>
       </c>
       <c r="G92" t="s">
-        <v>308</v>
+        <v>215</v>
       </c>
       <c r="H92" t="s">
-        <v>267</v>
+        <v>318</v>
       </c>
       <c r="I92" t="s">
         <v>408</v>
       </c>
       <c r="J92" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K92" t="s">
-        <v>267</v>
+        <v>318</v>
       </c>
       <c r="L92" t="s">
         <v>473</v>
       </c>
       <c r="M92" t="s">
-        <v>308</v>
+        <v>215</v>
       </c>
       <c r="N92" t="s">
         <v>475</v>
@@ -7230,7 +7230,7 @@
         <v>276</v>
       </c>
       <c r="R92" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="S92">
         <v>1.006606394517019</v>
@@ -7244,7 +7244,7 @@
         <v>277</v>
       </c>
       <c r="C93" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D93" t="b">
         <v>0</v>
@@ -7256,16 +7256,16 @@
         <v>277</v>
       </c>
       <c r="G93" t="s">
-        <v>305</v>
+        <v>237</v>
       </c>
       <c r="H93" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="I93" t="s">
         <v>409</v>
       </c>
       <c r="J93" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K93" t="s">
         <v>409</v>
@@ -7274,7 +7274,7 @@
         <v>474</v>
       </c>
       <c r="M93" t="s">
-        <v>305</v>
+        <v>237</v>
       </c>
       <c r="N93" t="s">
         <v>475</v>
@@ -7286,7 +7286,7 @@
         <v>472</v>
       </c>
       <c r="Q93" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="R93" t="s">
         <v>473</v>
@@ -7362,31 +7362,31 @@
         <v>278</v>
       </c>
       <c r="C95" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D95" t="b">
         <v>0</v>
       </c>
       <c r="E95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" t="s">
         <v>278</v>
       </c>
       <c r="G95" t="s">
-        <v>301</v>
+        <v>234</v>
       </c>
       <c r="H95" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="I95" t="s">
         <v>410</v>
       </c>
       <c r="J95" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K95" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="L95" t="s">
         <v>473</v>
@@ -7395,7 +7395,7 @@
         <v>278</v>
       </c>
       <c r="N95" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="O95" t="s">
         <v>410</v>
@@ -7404,7 +7404,7 @@
         <v>474</v>
       </c>
       <c r="Q95" t="s">
-        <v>301</v>
+        <v>234</v>
       </c>
       <c r="R95" t="s">
         <v>475</v>
@@ -7421,7 +7421,7 @@
         <v>279</v>
       </c>
       <c r="C96" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D96" t="b">
         <v>0</v>
@@ -7433,25 +7433,25 @@
         <v>279</v>
       </c>
       <c r="G96" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="H96" t="s">
-        <v>322</v>
+        <v>265</v>
       </c>
       <c r="I96" t="s">
         <v>411</v>
       </c>
       <c r="J96" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K96" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="L96" t="s">
         <v>475</v>
       </c>
       <c r="M96" t="s">
-        <v>322</v>
+        <v>265</v>
       </c>
       <c r="N96" t="s">
         <v>473</v>
@@ -7486,25 +7486,25 @@
         <v>0</v>
       </c>
       <c r="E97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="s">
         <v>280</v>
       </c>
       <c r="G97" t="s">
-        <v>321</v>
+        <v>230</v>
       </c>
       <c r="H97" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="I97" t="s">
         <v>412</v>
       </c>
       <c r="J97" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K97" t="s">
-        <v>321</v>
+        <v>230</v>
       </c>
       <c r="L97" t="s">
         <v>475</v>
@@ -7513,7 +7513,7 @@
         <v>280</v>
       </c>
       <c r="N97" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="O97" t="s">
         <v>412</v>
@@ -7522,7 +7522,7 @@
         <v>474</v>
       </c>
       <c r="Q97" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="R97" t="s">
         <v>473</v>
@@ -7539,7 +7539,7 @@
         <v>281</v>
       </c>
       <c r="C98" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
@@ -7551,19 +7551,19 @@
         <v>281</v>
       </c>
       <c r="G98" t="s">
-        <v>259</v>
+        <v>316</v>
       </c>
       <c r="H98" t="s">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="I98" t="s">
         <v>413</v>
       </c>
       <c r="J98" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K98" t="s">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="L98" t="s">
         <v>473</v>
@@ -7581,7 +7581,7 @@
         <v>472</v>
       </c>
       <c r="Q98" t="s">
-        <v>259</v>
+        <v>316</v>
       </c>
       <c r="R98" t="s">
         <v>475</v>
@@ -7598,7 +7598,7 @@
         <v>282</v>
       </c>
       <c r="C99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D99" t="b">
         <v>0</v>
@@ -7610,16 +7610,16 @@
         <v>282</v>
       </c>
       <c r="G99" t="s">
-        <v>320</v>
+        <v>238</v>
       </c>
       <c r="H99" t="s">
-        <v>336</v>
+        <v>233</v>
       </c>
       <c r="I99" t="s">
         <v>414</v>
       </c>
       <c r="J99" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K99" t="s">
         <v>282</v>
@@ -7634,13 +7634,13 @@
         <v>474</v>
       </c>
       <c r="O99" t="s">
-        <v>336</v>
+        <v>233</v>
       </c>
       <c r="P99" t="s">
         <v>473</v>
       </c>
       <c r="Q99" t="s">
-        <v>320</v>
+        <v>238</v>
       </c>
       <c r="R99" t="s">
         <v>475</v>
@@ -7716,43 +7716,43 @@
         <v>283</v>
       </c>
       <c r="C101" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D101" t="b">
         <v>0</v>
       </c>
       <c r="E101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" t="s">
         <v>283</v>
       </c>
       <c r="G101" t="s">
-        <v>298</v>
+        <v>236</v>
       </c>
       <c r="H101" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="I101" t="s">
         <v>415</v>
       </c>
       <c r="J101" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K101" t="s">
         <v>283</v>
       </c>
       <c r="L101" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="M101" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="N101" t="s">
         <v>473</v>
       </c>
       <c r="O101" t="s">
-        <v>298</v>
+        <v>236</v>
       </c>
       <c r="P101" t="s">
         <v>475</v>
@@ -7834,7 +7834,7 @@
         <v>284</v>
       </c>
       <c r="C103" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D103" t="b">
         <v>0</v>
@@ -7846,19 +7846,19 @@
         <v>284</v>
       </c>
       <c r="G103" t="s">
-        <v>337</v>
+        <v>232</v>
       </c>
       <c r="H103" t="s">
-        <v>254</v>
+        <v>335</v>
       </c>
       <c r="I103" t="s">
         <v>416</v>
       </c>
       <c r="J103" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K103" t="s">
-        <v>337</v>
+        <v>232</v>
       </c>
       <c r="L103" t="s">
         <v>475</v>
@@ -7876,7 +7876,7 @@
         <v>474</v>
       </c>
       <c r="Q103" t="s">
-        <v>254</v>
+        <v>335</v>
       </c>
       <c r="R103" t="s">
         <v>473</v>
@@ -7893,31 +7893,31 @@
         <v>285</v>
       </c>
       <c r="C104" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D104" t="b">
         <v>0</v>
       </c>
       <c r="E104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" t="s">
         <v>285</v>
       </c>
       <c r="G104" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="H104" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="I104" t="s">
         <v>417</v>
       </c>
       <c r="J104" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K104" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="L104" t="s">
         <v>473</v>
@@ -7929,7 +7929,7 @@
         <v>474</v>
       </c>
       <c r="O104" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="P104" t="s">
         <v>475</v>
@@ -7938,7 +7938,7 @@
         <v>285</v>
       </c>
       <c r="R104" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="S104">
         <v>1.231425472279143</v>
@@ -7952,7 +7952,7 @@
         <v>286</v>
       </c>
       <c r="C105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D105" t="b">
         <v>0</v>
@@ -7964,19 +7964,19 @@
         <v>286</v>
       </c>
       <c r="G105" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="H105" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="I105" t="s">
         <v>418</v>
       </c>
       <c r="J105" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K105" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="L105" t="s">
         <v>475</v>
@@ -7988,7 +7988,7 @@
         <v>474</v>
       </c>
       <c r="O105" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="P105" t="s">
         <v>473</v>
@@ -8011,7 +8011,7 @@
         <v>287</v>
       </c>
       <c r="C106" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D106" t="b">
         <v>0</v>
@@ -8023,19 +8023,19 @@
         <v>287</v>
       </c>
       <c r="G106" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="H106" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="I106" t="s">
         <v>419</v>
       </c>
       <c r="J106" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K106" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="L106" t="s">
         <v>473</v>
@@ -8053,7 +8053,7 @@
         <v>474</v>
       </c>
       <c r="Q106" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="R106" t="s">
         <v>475</v>
@@ -8070,7 +8070,7 @@
         <v>288</v>
       </c>
       <c r="C107" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D107" t="b">
         <v>0</v>
@@ -8082,16 +8082,16 @@
         <v>288</v>
       </c>
       <c r="G107" t="s">
-        <v>213</v>
+        <v>297</v>
       </c>
       <c r="H107" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="I107" t="s">
         <v>420</v>
       </c>
       <c r="J107" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K107" t="s">
         <v>420</v>
@@ -8100,13 +8100,13 @@
         <v>474</v>
       </c>
       <c r="M107" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="N107" t="s">
         <v>473</v>
       </c>
       <c r="O107" t="s">
-        <v>213</v>
+        <v>297</v>
       </c>
       <c r="P107" t="s">
         <v>475</v>
@@ -8247,7 +8247,7 @@
         <v>289</v>
       </c>
       <c r="C110" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D110" t="b">
         <v>0</v>
@@ -8259,19 +8259,19 @@
         <v>289</v>
       </c>
       <c r="G110" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H110" t="s">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="I110" t="s">
         <v>421</v>
       </c>
       <c r="J110" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K110" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L110" t="s">
         <v>475</v>
@@ -8283,7 +8283,7 @@
         <v>474</v>
       </c>
       <c r="O110" t="s">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="P110" t="s">
         <v>473</v>
@@ -8436,19 +8436,19 @@
         <v>290</v>
       </c>
       <c r="G113" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H113" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="I113" t="s">
         <v>422</v>
       </c>
       <c r="J113" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K113" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="L113" t="s">
         <v>473</v>
@@ -8466,7 +8466,7 @@
         <v>472</v>
       </c>
       <c r="Q113" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="R113" t="s">
         <v>475</v>
@@ -8495,10 +8495,10 @@
         <v>291</v>
       </c>
       <c r="G114" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="H114" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="I114" t="s">
         <v>423</v>
@@ -8507,7 +8507,7 @@
         <v>342</v>
       </c>
       <c r="K114" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="L114" t="s">
         <v>475</v>
@@ -8525,7 +8525,7 @@
         <v>474</v>
       </c>
       <c r="Q114" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="R114" t="s">
         <v>473</v>
@@ -8542,28 +8542,28 @@
         <v>292</v>
       </c>
       <c r="C115" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D115" t="b">
         <v>0</v>
       </c>
       <c r="E115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="s">
         <v>292</v>
       </c>
       <c r="G115" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="H115" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="I115" t="s">
         <v>424</v>
       </c>
       <c r="J115" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K115" t="s">
         <v>424</v>
@@ -8572,7 +8572,7 @@
         <v>474</v>
       </c>
       <c r="M115" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="N115" t="s">
         <v>475</v>
@@ -8581,10 +8581,10 @@
         <v>292</v>
       </c>
       <c r="P115" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="Q115" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="R115" t="s">
         <v>473</v>
@@ -8613,10 +8613,10 @@
         <v>293</v>
       </c>
       <c r="G116" t="s">
-        <v>256</v>
+        <v>334</v>
       </c>
       <c r="H116" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="I116" t="s">
         <v>425</v>
@@ -8631,13 +8631,13 @@
         <v>472</v>
       </c>
       <c r="M116" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="N116" t="s">
         <v>473</v>
       </c>
       <c r="O116" t="s">
-        <v>256</v>
+        <v>334</v>
       </c>
       <c r="P116" t="s">
         <v>475</v>
@@ -8672,19 +8672,19 @@
         <v>294</v>
       </c>
       <c r="G117" t="s">
-        <v>216</v>
+        <v>324</v>
       </c>
       <c r="H117" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="I117" t="s">
         <v>426</v>
       </c>
       <c r="J117" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K117" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="L117" t="s">
         <v>473</v>
@@ -8702,7 +8702,7 @@
         <v>472</v>
       </c>
       <c r="Q117" t="s">
-        <v>216</v>
+        <v>324</v>
       </c>
       <c r="R117" t="s">
         <v>475</v>
@@ -8955,31 +8955,31 @@
         <v>295</v>
       </c>
       <c r="C122" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D122" t="b">
         <v>0</v>
       </c>
       <c r="E122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" t="s">
         <v>295</v>
       </c>
       <c r="G122" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="H122" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I122" t="s">
         <v>427</v>
       </c>
       <c r="J122" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K122" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="L122" t="s">
         <v>475</v>
@@ -8988,10 +8988,10 @@
         <v>295</v>
       </c>
       <c r="N122" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="O122" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="P122" t="s">
         <v>473</v>
@@ -9014,7 +9014,7 @@
         <v>296</v>
       </c>
       <c r="C123" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D123" t="b">
         <v>0</v>
@@ -9026,16 +9026,16 @@
         <v>296</v>
       </c>
       <c r="G123" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="H123" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="I123" t="s">
         <v>428</v>
       </c>
       <c r="J123" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K123" t="s">
         <v>428</v>
@@ -9044,7 +9044,7 @@
         <v>474</v>
       </c>
       <c r="M123" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="N123" t="s">
         <v>475</v>
@@ -9056,7 +9056,7 @@
         <v>472</v>
       </c>
       <c r="Q123" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="R123" t="s">
         <v>473</v>
@@ -9085,25 +9085,25 @@
         <v>297</v>
       </c>
       <c r="G124" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="H124" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="I124" t="s">
         <v>429</v>
       </c>
       <c r="J124" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K124" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="L124" t="s">
         <v>475</v>
       </c>
       <c r="M124" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="N124" t="s">
         <v>473</v>
@@ -9132,7 +9132,7 @@
         <v>298</v>
       </c>
       <c r="C125" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D125" t="b">
         <v>0</v>
@@ -9144,16 +9144,16 @@
         <v>298</v>
       </c>
       <c r="G125" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="H125" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I125" t="s">
         <v>430</v>
       </c>
       <c r="J125" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K125" t="s">
         <v>430</v>
@@ -9168,13 +9168,13 @@
         <v>472</v>
       </c>
       <c r="O125" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="P125" t="s">
         <v>475</v>
       </c>
       <c r="Q125" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="R125" t="s">
         <v>473</v>
@@ -9191,31 +9191,31 @@
         <v>299</v>
       </c>
       <c r="C126" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D126" t="b">
         <v>0</v>
       </c>
       <c r="E126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126" t="s">
         <v>299</v>
       </c>
       <c r="G126" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="H126" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
       <c r="I126" t="s">
         <v>431</v>
       </c>
       <c r="J126" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K126" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
       <c r="L126" t="s">
         <v>473</v>
@@ -9230,10 +9230,10 @@
         <v>299</v>
       </c>
       <c r="P126" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="Q126" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R126" t="s">
         <v>475</v>
@@ -9309,7 +9309,7 @@
         <v>300</v>
       </c>
       <c r="C128" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D128" t="b">
         <v>0</v>
@@ -9321,16 +9321,16 @@
         <v>300</v>
       </c>
       <c r="G128" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="H128" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I128" t="s">
         <v>432</v>
       </c>
       <c r="J128" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K128" t="s">
         <v>432</v>
@@ -9339,7 +9339,7 @@
         <v>474</v>
       </c>
       <c r="M128" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="N128" t="s">
         <v>475</v>
@@ -9351,7 +9351,7 @@
         <v>472</v>
       </c>
       <c r="Q128" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="R128" t="s">
         <v>473</v>
@@ -9498,10 +9498,10 @@
         <v>301</v>
       </c>
       <c r="G131" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="H131" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="I131" t="s">
         <v>433</v>
@@ -9516,13 +9516,13 @@
         <v>472</v>
       </c>
       <c r="M131" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="N131" t="s">
         <v>473</v>
       </c>
       <c r="O131" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="P131" t="s">
         <v>475</v>
@@ -9545,7 +9545,7 @@
         <v>302</v>
       </c>
       <c r="C132" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D132" t="b">
         <v>0</v>
@@ -9557,25 +9557,25 @@
         <v>302</v>
       </c>
       <c r="G132" t="s">
-        <v>316</v>
+        <v>221</v>
       </c>
       <c r="H132" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="I132" t="s">
         <v>434</v>
       </c>
       <c r="J132" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K132" t="s">
-        <v>316</v>
+        <v>221</v>
       </c>
       <c r="L132" t="s">
         <v>475</v>
       </c>
       <c r="M132" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="N132" t="s">
         <v>473</v>
@@ -9781,7 +9781,7 @@
         <v>303</v>
       </c>
       <c r="C136" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D136" t="b">
         <v>0</v>
@@ -9793,19 +9793,19 @@
         <v>303</v>
       </c>
       <c r="G136" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="H136" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="I136" t="s">
         <v>435</v>
       </c>
       <c r="J136" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K136" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="L136" t="s">
         <v>475</v>
@@ -9817,7 +9817,7 @@
         <v>474</v>
       </c>
       <c r="O136" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="P136" t="s">
         <v>473</v>
@@ -9840,7 +9840,7 @@
         <v>304</v>
       </c>
       <c r="C137" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D137" t="b">
         <v>0</v>
@@ -9852,10 +9852,10 @@
         <v>304</v>
       </c>
       <c r="G137" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="H137" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="I137" t="s">
         <v>436</v>
@@ -9870,13 +9870,13 @@
         <v>472</v>
       </c>
       <c r="M137" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="N137" t="s">
         <v>473</v>
       </c>
       <c r="O137" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="P137" t="s">
         <v>475</v>
@@ -9899,7 +9899,7 @@
         <v>305</v>
       </c>
       <c r="C138" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D138" t="b">
         <v>0</v>
@@ -9911,16 +9911,16 @@
         <v>305</v>
       </c>
       <c r="G138" t="s">
-        <v>237</v>
+        <v>304</v>
       </c>
       <c r="H138" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="I138" t="s">
         <v>437</v>
       </c>
       <c r="J138" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K138" t="s">
         <v>437</v>
@@ -9929,7 +9929,7 @@
         <v>474</v>
       </c>
       <c r="M138" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="N138" t="s">
         <v>473</v>
@@ -9941,7 +9941,7 @@
         <v>472</v>
       </c>
       <c r="Q138" t="s">
-        <v>237</v>
+        <v>304</v>
       </c>
       <c r="R138" t="s">
         <v>475</v>
@@ -9958,7 +9958,7 @@
         <v>306</v>
       </c>
       <c r="C139" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D139" t="b">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>306</v>
       </c>
       <c r="G139" t="s">
+        <v>245</v>
+      </c>
+      <c r="H139" t="s">
         <v>230</v>
-      </c>
-      <c r="H139" t="s">
-        <v>331</v>
       </c>
       <c r="I139" t="s">
         <v>438</v>
@@ -9982,7 +9982,7 @@
         <v>340</v>
       </c>
       <c r="K139" t="s">
-        <v>331</v>
+        <v>230</v>
       </c>
       <c r="L139" t="s">
         <v>473</v>
@@ -9994,7 +9994,7 @@
         <v>476</v>
       </c>
       <c r="O139" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="P139" t="s">
         <v>475</v>
@@ -10029,19 +10029,19 @@
         <v>307</v>
       </c>
       <c r="G140" t="s">
-        <v>252</v>
+        <v>325</v>
       </c>
       <c r="H140" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I140" t="s">
         <v>439</v>
       </c>
       <c r="J140" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K140" t="s">
-        <v>252</v>
+        <v>325</v>
       </c>
       <c r="L140" t="s">
         <v>475</v>
@@ -10053,7 +10053,7 @@
         <v>474</v>
       </c>
       <c r="O140" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P140" t="s">
         <v>473</v>
@@ -10076,7 +10076,7 @@
         <v>308</v>
       </c>
       <c r="C141" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D141" t="b">
         <v>0</v>
@@ -10088,16 +10088,16 @@
         <v>308</v>
       </c>
       <c r="G141" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="H141" t="s">
-        <v>246</v>
+        <v>331</v>
       </c>
       <c r="I141" t="s">
         <v>440</v>
       </c>
       <c r="J141" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K141" t="s">
         <v>440</v>
@@ -10106,13 +10106,13 @@
         <v>474</v>
       </c>
       <c r="M141" t="s">
-        <v>246</v>
+        <v>331</v>
       </c>
       <c r="N141" t="s">
         <v>473</v>
       </c>
       <c r="O141" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="P141" t="s">
         <v>475</v>
@@ -10194,7 +10194,7 @@
         <v>309</v>
       </c>
       <c r="C143" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D143" t="b">
         <v>0</v>
@@ -10206,19 +10206,19 @@
         <v>309</v>
       </c>
       <c r="G143" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="H143" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="I143" t="s">
         <v>441</v>
       </c>
       <c r="J143" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K143" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="L143" t="s">
         <v>473</v>
@@ -10236,7 +10236,7 @@
         <v>472</v>
       </c>
       <c r="Q143" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="R143" t="s">
         <v>475</v>
@@ -10253,43 +10253,43 @@
         <v>310</v>
       </c>
       <c r="C144" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D144" t="b">
         <v>0</v>
       </c>
       <c r="E144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144" t="s">
         <v>310</v>
       </c>
       <c r="G144" t="s">
-        <v>303</v>
+        <v>222</v>
       </c>
       <c r="H144" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="I144" t="s">
         <v>442</v>
       </c>
       <c r="J144" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K144" t="s">
         <v>310</v>
       </c>
       <c r="L144" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="M144" t="s">
-        <v>303</v>
+        <v>222</v>
       </c>
       <c r="N144" t="s">
         <v>475</v>
       </c>
       <c r="O144" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="P144" t="s">
         <v>473</v>
@@ -10318,25 +10318,25 @@
         <v>0</v>
       </c>
       <c r="E145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145" t="s">
         <v>311</v>
       </c>
       <c r="G145" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="H145" t="s">
-        <v>301</v>
+        <v>253</v>
       </c>
       <c r="I145" t="s">
         <v>443</v>
       </c>
       <c r="J145" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K145" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="L145" t="s">
         <v>475</v>
@@ -10348,7 +10348,7 @@
         <v>474</v>
       </c>
       <c r="O145" t="s">
-        <v>301</v>
+        <v>253</v>
       </c>
       <c r="P145" t="s">
         <v>473</v>
@@ -10357,7 +10357,7 @@
         <v>311</v>
       </c>
       <c r="R145" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="S145">
         <v>1.021642698963281</v>
@@ -10607,7 +10607,7 @@
         <v>312</v>
       </c>
       <c r="C150" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D150" t="b">
         <v>0</v>
@@ -10619,16 +10619,16 @@
         <v>312</v>
       </c>
       <c r="G150" t="s">
-        <v>325</v>
+        <v>267</v>
       </c>
       <c r="H150" t="s">
-        <v>337</v>
+        <v>215</v>
       </c>
       <c r="I150" t="s">
         <v>444</v>
       </c>
       <c r="J150" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K150" t="s">
         <v>444</v>
@@ -10643,13 +10643,13 @@
         <v>476</v>
       </c>
       <c r="O150" t="s">
-        <v>325</v>
+        <v>267</v>
       </c>
       <c r="P150" t="s">
         <v>475</v>
       </c>
       <c r="Q150" t="s">
-        <v>337</v>
+        <v>215</v>
       </c>
       <c r="R150" t="s">
         <v>473</v>
@@ -10666,7 +10666,7 @@
         <v>313</v>
       </c>
       <c r="C151" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D151" t="b">
         <v>0</v>
@@ -10678,19 +10678,19 @@
         <v>313</v>
       </c>
       <c r="G151" t="s">
-        <v>220</v>
+        <v>335</v>
       </c>
       <c r="H151" t="s">
-        <v>310</v>
+        <v>226</v>
       </c>
       <c r="I151" t="s">
         <v>445</v>
       </c>
       <c r="J151" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K151" t="s">
-        <v>220</v>
+        <v>335</v>
       </c>
       <c r="L151" t="s">
         <v>475</v>
@@ -10708,7 +10708,7 @@
         <v>472</v>
       </c>
       <c r="Q151" t="s">
-        <v>310</v>
+        <v>226</v>
       </c>
       <c r="R151" t="s">
         <v>473</v>
@@ -10725,43 +10725,43 @@
         <v>314</v>
       </c>
       <c r="C152" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D152" t="b">
         <v>0</v>
       </c>
       <c r="E152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152" t="s">
         <v>314</v>
       </c>
       <c r="G152" t="s">
-        <v>296</v>
+        <v>229</v>
       </c>
       <c r="H152" t="s">
-        <v>332</v>
+        <v>248</v>
       </c>
       <c r="I152" t="s">
         <v>446</v>
       </c>
       <c r="J152" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K152" t="s">
         <v>314</v>
       </c>
       <c r="L152" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="M152" t="s">
-        <v>332</v>
+        <v>248</v>
       </c>
       <c r="N152" t="s">
         <v>473</v>
       </c>
       <c r="O152" t="s">
-        <v>296</v>
+        <v>229</v>
       </c>
       <c r="P152" t="s">
         <v>475</v>
@@ -10784,22 +10784,22 @@
         <v>315</v>
       </c>
       <c r="C153" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D153" t="b">
         <v>0</v>
       </c>
       <c r="E153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153" t="s">
         <v>315</v>
       </c>
       <c r="G153" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
       <c r="H153" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="I153" t="s">
         <v>447</v>
@@ -10808,7 +10808,7 @@
         <v>340</v>
       </c>
       <c r="K153" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
       <c r="L153" t="s">
         <v>475</v>
@@ -10817,7 +10817,7 @@
         <v>315</v>
       </c>
       <c r="N153" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="O153" t="s">
         <v>447</v>
@@ -10826,7 +10826,7 @@
         <v>474</v>
       </c>
       <c r="Q153" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="R153" t="s">
         <v>473</v>
@@ -10849,16 +10849,16 @@
         <v>0</v>
       </c>
       <c r="E154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" t="s">
         <v>316</v>
       </c>
       <c r="G154" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="H154" t="s">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="I154" t="s">
         <v>448</v>
@@ -10867,7 +10867,7 @@
         <v>342</v>
       </c>
       <c r="K154" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="L154" t="s">
         <v>475</v>
@@ -10882,10 +10882,10 @@
         <v>316</v>
       </c>
       <c r="P154" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="Q154" t="s">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="R154" t="s">
         <v>473</v>
@@ -11020,7 +11020,7 @@
         <v>317</v>
       </c>
       <c r="C157" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D157" t="b">
         <v>0</v>
@@ -11032,25 +11032,25 @@
         <v>317</v>
       </c>
       <c r="G157" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="H157" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="I157" t="s">
         <v>449</v>
       </c>
       <c r="J157" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K157" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="L157" t="s">
         <v>473</v>
       </c>
       <c r="M157" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="N157" t="s">
         <v>475</v>
@@ -11144,31 +11144,31 @@
         <v>0</v>
       </c>
       <c r="E159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="s">
         <v>318</v>
       </c>
       <c r="G159" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="H159" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="I159" t="s">
         <v>450</v>
       </c>
       <c r="J159" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K159" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="L159" t="s">
         <v>475</v>
       </c>
       <c r="M159" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="N159" t="s">
         <v>473</v>
@@ -11177,7 +11177,7 @@
         <v>318</v>
       </c>
       <c r="P159" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="Q159" t="s">
         <v>450</v>
@@ -11203,16 +11203,16 @@
         <v>0</v>
       </c>
       <c r="E160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" t="s">
         <v>319</v>
       </c>
       <c r="G160" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="H160" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="I160" t="s">
         <v>451</v>
@@ -11227,7 +11227,7 @@
         <v>474</v>
       </c>
       <c r="M160" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="N160" t="s">
         <v>473</v>
@@ -11236,10 +11236,10 @@
         <v>319</v>
       </c>
       <c r="P160" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="Q160" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="R160" t="s">
         <v>475</v>
@@ -11374,7 +11374,7 @@
         <v>320</v>
       </c>
       <c r="C163" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D163" t="b">
         <v>0</v>
@@ -11386,16 +11386,16 @@
         <v>320</v>
       </c>
       <c r="G163" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="H163" t="s">
-        <v>339</v>
+        <v>228</v>
       </c>
       <c r="I163" t="s">
         <v>452</v>
       </c>
       <c r="J163" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K163" t="s">
         <v>452</v>
@@ -11410,13 +11410,13 @@
         <v>472</v>
       </c>
       <c r="O163" t="s">
-        <v>339</v>
+        <v>228</v>
       </c>
       <c r="P163" t="s">
         <v>473</v>
       </c>
       <c r="Q163" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="R163" t="s">
         <v>475</v>
@@ -11433,31 +11433,31 @@
         <v>321</v>
       </c>
       <c r="C164" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D164" t="b">
         <v>0</v>
       </c>
       <c r="E164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164" t="s">
         <v>321</v>
       </c>
       <c r="G164" t="s">
-        <v>235</v>
+        <v>329</v>
       </c>
       <c r="H164" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="I164" t="s">
         <v>453</v>
       </c>
       <c r="J164" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K164" t="s">
-        <v>235</v>
+        <v>329</v>
       </c>
       <c r="L164" t="s">
         <v>475</v>
@@ -11466,7 +11466,7 @@
         <v>321</v>
       </c>
       <c r="N164" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="O164" t="s">
         <v>453</v>
@@ -11475,7 +11475,7 @@
         <v>474</v>
       </c>
       <c r="Q164" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="R164" t="s">
         <v>473</v>
@@ -11551,7 +11551,7 @@
         <v>322</v>
       </c>
       <c r="C166" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D166" t="b">
         <v>0</v>
@@ -11563,25 +11563,25 @@
         <v>322</v>
       </c>
       <c r="G166" t="s">
-        <v>273</v>
+        <v>321</v>
       </c>
       <c r="H166" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="I166" t="s">
         <v>454</v>
       </c>
       <c r="J166" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K166" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="L166" t="s">
         <v>473</v>
       </c>
       <c r="M166" t="s">
-        <v>273</v>
+        <v>321</v>
       </c>
       <c r="N166" t="s">
         <v>475</v>
@@ -11610,7 +11610,7 @@
         <v>323</v>
       </c>
       <c r="C167" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D167" t="b">
         <v>0</v>
@@ -11622,16 +11622,16 @@
         <v>323</v>
       </c>
       <c r="G167" t="s">
-        <v>233</v>
+        <v>290</v>
       </c>
       <c r="H167" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="I167" t="s">
         <v>455</v>
       </c>
       <c r="J167" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K167" t="s">
         <v>455</v>
@@ -11640,13 +11640,13 @@
         <v>474</v>
       </c>
       <c r="M167" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="N167" t="s">
         <v>473</v>
       </c>
       <c r="O167" t="s">
-        <v>233</v>
+        <v>290</v>
       </c>
       <c r="P167" t="s">
         <v>475</v>
@@ -11669,7 +11669,7 @@
         <v>324</v>
       </c>
       <c r="C168" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D168" t="b">
         <v>0</v>
@@ -11681,16 +11681,16 @@
         <v>324</v>
       </c>
       <c r="G168" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="H168" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="I168" t="s">
         <v>456</v>
       </c>
       <c r="J168" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K168" t="s">
         <v>324</v>
@@ -11699,13 +11699,13 @@
         <v>472</v>
       </c>
       <c r="M168" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="N168" t="s">
         <v>473</v>
       </c>
       <c r="O168" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="P168" t="s">
         <v>475</v>
@@ -11728,31 +11728,31 @@
         <v>325</v>
       </c>
       <c r="C169" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D169" t="b">
         <v>0</v>
       </c>
       <c r="E169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169" t="s">
         <v>325</v>
       </c>
       <c r="G169" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="H169" t="s">
-        <v>241</v>
+        <v>334</v>
       </c>
       <c r="I169" t="s">
         <v>457</v>
       </c>
       <c r="J169" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K169" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="L169" t="s">
         <v>475</v>
@@ -11761,7 +11761,7 @@
         <v>325</v>
       </c>
       <c r="N169" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="O169" t="s">
         <v>457</v>
@@ -11770,7 +11770,7 @@
         <v>474</v>
       </c>
       <c r="Q169" t="s">
-        <v>241</v>
+        <v>334</v>
       </c>
       <c r="R169" t="s">
         <v>473</v>
@@ -11793,22 +11793,22 @@
         <v>0</v>
       </c>
       <c r="E170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170" t="s">
         <v>326</v>
       </c>
       <c r="G170" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="H170" t="s">
-        <v>218</v>
+        <v>275</v>
       </c>
       <c r="I170" t="s">
         <v>458</v>
       </c>
       <c r="J170" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K170" t="s">
         <v>458</v>
@@ -11817,7 +11817,7 @@
         <v>474</v>
       </c>
       <c r="M170" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="N170" t="s">
         <v>475</v>
@@ -11826,10 +11826,10 @@
         <v>326</v>
       </c>
       <c r="P170" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="Q170" t="s">
-        <v>218</v>
+        <v>275</v>
       </c>
       <c r="R170" t="s">
         <v>473</v>
@@ -11846,7 +11846,7 @@
         <v>327</v>
       </c>
       <c r="C171" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D171" t="b">
         <v>0</v>
@@ -11858,16 +11858,16 @@
         <v>327</v>
       </c>
       <c r="G171" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="H171" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="I171" t="s">
         <v>459</v>
       </c>
       <c r="J171" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K171" t="s">
         <v>327</v>
@@ -11882,13 +11882,13 @@
         <v>474</v>
       </c>
       <c r="O171" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="P171" t="s">
         <v>473</v>
       </c>
       <c r="Q171" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="R171" t="s">
         <v>475</v>
@@ -12023,7 +12023,7 @@
         <v>328</v>
       </c>
       <c r="C174" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D174" t="b">
         <v>0</v>
@@ -12035,16 +12035,16 @@
         <v>328</v>
       </c>
       <c r="G174" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="H174" t="s">
-        <v>231</v>
+        <v>283</v>
       </c>
       <c r="I174" t="s">
         <v>460</v>
       </c>
       <c r="J174" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K174" t="s">
         <v>460</v>
@@ -12059,13 +12059,13 @@
         <v>472</v>
       </c>
       <c r="O174" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="P174" t="s">
         <v>475</v>
       </c>
       <c r="Q174" t="s">
-        <v>231</v>
+        <v>283</v>
       </c>
       <c r="R174" t="s">
         <v>473</v>
@@ -12153,19 +12153,19 @@
         <v>329</v>
       </c>
       <c r="G176" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="H176" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="I176" t="s">
         <v>461</v>
       </c>
       <c r="J176" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K176" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="L176" t="s">
         <v>475</v>
@@ -12183,7 +12183,7 @@
         <v>474</v>
       </c>
       <c r="Q176" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="R176" t="s">
         <v>473</v>
@@ -12200,43 +12200,43 @@
         <v>330</v>
       </c>
       <c r="C177" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D177" t="b">
         <v>0</v>
       </c>
       <c r="E177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177" t="s">
         <v>330</v>
       </c>
       <c r="G177" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="H177" t="s">
-        <v>312</v>
+        <v>237</v>
       </c>
       <c r="I177" t="s">
         <v>462</v>
       </c>
       <c r="J177" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K177" t="s">
         <v>330</v>
       </c>
       <c r="L177" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="M177" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="N177" t="s">
         <v>475</v>
       </c>
       <c r="O177" t="s">
-        <v>312</v>
+        <v>237</v>
       </c>
       <c r="P177" t="s">
         <v>473</v>
@@ -12271,16 +12271,16 @@
         <v>331</v>
       </c>
       <c r="G178" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="H178" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="I178" t="s">
         <v>463</v>
       </c>
       <c r="J178" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K178" t="s">
         <v>331</v>
@@ -12295,13 +12295,13 @@
         <v>474</v>
       </c>
       <c r="O178" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="P178" t="s">
         <v>473</v>
       </c>
       <c r="Q178" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="R178" t="s">
         <v>475</v>
@@ -12330,10 +12330,10 @@
         <v>332</v>
       </c>
       <c r="G179" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="H179" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="I179" t="s">
         <v>464</v>
@@ -12342,7 +12342,7 @@
         <v>341</v>
       </c>
       <c r="K179" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="L179" t="s">
         <v>473</v>
@@ -12360,7 +12360,7 @@
         <v>476</v>
       </c>
       <c r="Q179" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="R179" t="s">
         <v>475</v>
@@ -12436,37 +12436,37 @@
         <v>333</v>
       </c>
       <c r="C181" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D181" t="b">
         <v>0</v>
       </c>
       <c r="E181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181" t="s">
         <v>333</v>
       </c>
       <c r="G181" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H181" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I181" t="s">
         <v>465</v>
       </c>
       <c r="J181" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K181" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L181" t="s">
         <v>475</v>
       </c>
       <c r="M181" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N181" t="s">
         <v>473</v>
@@ -12481,7 +12481,7 @@
         <v>333</v>
       </c>
       <c r="R181" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="S181">
         <v>1.238367918346353</v>
@@ -12613,28 +12613,28 @@
         <v>334</v>
       </c>
       <c r="C184" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D184" t="b">
         <v>0</v>
       </c>
       <c r="E184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184" t="s">
         <v>334</v>
       </c>
       <c r="G184" t="s">
-        <v>332</v>
+        <v>252</v>
       </c>
       <c r="H184" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="I184" t="s">
         <v>466</v>
       </c>
       <c r="J184" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K184" t="s">
         <v>466</v>
@@ -12646,16 +12646,16 @@
         <v>334</v>
       </c>
       <c r="N184" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="O184" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="P184" t="s">
         <v>473</v>
       </c>
       <c r="Q184" t="s">
-        <v>332</v>
+        <v>252</v>
       </c>
       <c r="R184" t="s">
         <v>475</v>
@@ -12731,37 +12731,37 @@
         <v>335</v>
       </c>
       <c r="C186" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D186" t="b">
         <v>0</v>
       </c>
       <c r="E186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186" t="s">
         <v>335</v>
       </c>
       <c r="G186" t="s">
-        <v>327</v>
+        <v>228</v>
       </c>
       <c r="H186" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I186" t="s">
         <v>467</v>
       </c>
       <c r="J186" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K186" t="s">
-        <v>327</v>
+        <v>228</v>
       </c>
       <c r="L186" t="s">
         <v>475</v>
       </c>
       <c r="M186" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="N186" t="s">
         <v>473</v>
@@ -12770,7 +12770,7 @@
         <v>335</v>
       </c>
       <c r="P186" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="Q186" t="s">
         <v>467</v>
@@ -12849,7 +12849,7 @@
         <v>336</v>
       </c>
       <c r="C188" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D188" t="b">
         <v>0</v>
@@ -12861,25 +12861,25 @@
         <v>336</v>
       </c>
       <c r="G188" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="H188" t="s">
-        <v>235</v>
+        <v>302</v>
       </c>
       <c r="I188" t="s">
         <v>468</v>
       </c>
       <c r="J188" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K188" t="s">
-        <v>235</v>
+        <v>302</v>
       </c>
       <c r="L188" t="s">
         <v>473</v>
       </c>
       <c r="M188" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="N188" t="s">
         <v>475</v>
@@ -12908,7 +12908,7 @@
         <v>337</v>
       </c>
       <c r="C189" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D189" t="b">
         <v>0</v>
@@ -12920,25 +12920,25 @@
         <v>337</v>
       </c>
       <c r="G189" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="H189" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="I189" t="s">
         <v>469</v>
       </c>
       <c r="J189" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K189" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="L189" t="s">
         <v>475</v>
       </c>
       <c r="M189" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="N189" t="s">
         <v>473</v>
@@ -12967,31 +12967,31 @@
         <v>338</v>
       </c>
       <c r="C190" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D190" t="b">
         <v>0</v>
       </c>
       <c r="E190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="s">
         <v>338</v>
       </c>
       <c r="G190" t="s">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="H190" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="I190" t="s">
         <v>470</v>
       </c>
       <c r="J190" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K190" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="L190" t="s">
         <v>473</v>
@@ -13006,10 +13006,10 @@
         <v>338</v>
       </c>
       <c r="P190" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="Q190" t="s">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="R190" t="s">
         <v>475</v>
@@ -13144,22 +13144,22 @@
         <v>339</v>
       </c>
       <c r="C193" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D193" t="b">
         <v>0</v>
       </c>
       <c r="E193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193" t="s">
         <v>339</v>
       </c>
       <c r="G193" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="H193" t="s">
-        <v>226</v>
+        <v>336</v>
       </c>
       <c r="I193" t="s">
         <v>471</v>
@@ -13174,13 +13174,13 @@
         <v>474</v>
       </c>
       <c r="M193" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="N193" t="s">
         <v>475</v>
       </c>
       <c r="O193" t="s">
-        <v>226</v>
+        <v>336</v>
       </c>
       <c r="P193" t="s">
         <v>473</v>
@@ -13189,7 +13189,7 @@
         <v>339</v>
       </c>
       <c r="R193" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="S193">
         <v>1.077702018970319</v>
